--- a/docs/Файлы предметной области/ИП/ИПП Скворцова Л.А. 1,0.xlsx
+++ b/docs/Файлы предметной области/ИП/ИПП Скворцова Л.А. 1,0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="11130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="11130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1 - Титул" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="173">
   <si>
     <t>МИНОБРНАУКИ РОССИИ</t>
   </si>
@@ -3236,35 +3236,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3290,49 +3335,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3359,22 +3362,127 @@
     <xf numFmtId="0" fontId="94" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3401,147 +3509,36 @@
     <xf numFmtId="0" fontId="194" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="195" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="226" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3554,26 +3551,62 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3587,36 +3620,6 @@
     <xf numFmtId="0" fontId="251" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3628,9 +3631,6 @@
     </xf>
     <xf numFmtId="0" fontId="238" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3992,7 +3992,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="226" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="227"/>
@@ -4166,7 +4166,7 @@
       <c r="FN1" s="227"/>
     </row>
     <row r="2" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="226" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="227"/>
@@ -4340,7 +4340,7 @@
       <c r="FN2" s="227"/>
     </row>
     <row r="3" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="228" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="227"/>
@@ -4514,7 +4514,7 @@
       <c r="FN3" s="227"/>
     </row>
     <row r="4" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="229" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="227"/>
@@ -4693,7 +4693,7 @@
     <row r="8" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AW10" s="231" t="s">
+      <c r="AW10" s="230" t="s">
         <v>4</v>
       </c>
       <c r="AX10" s="227"/>
@@ -4734,7 +4734,7 @@
       <c r="CI10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="EE10" s="231" t="s">
+      <c r="EE10" s="230" t="s">
         <v>4</v>
       </c>
       <c r="EF10" s="227"/>
@@ -4774,7 +4774,7 @@
       <c r="FN10" s="227"/>
     </row>
     <row r="11" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AO11" s="229" t="s">
+      <c r="AO11" s="226" t="s">
         <v>5</v>
       </c>
       <c r="AP11" s="227"/>
@@ -4788,44 +4788,44 @@
       <c r="AX11" s="227"/>
       <c r="AY11" s="227"/>
       <c r="AZ11" s="227"/>
-      <c r="BA11" s="230" t="s">
+      <c r="BA11" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="BB11" s="230"/>
-      <c r="BC11" s="230"/>
-      <c r="BD11" s="230"/>
-      <c r="BE11" s="230"/>
-      <c r="BF11" s="230"/>
-      <c r="BG11" s="230"/>
-      <c r="BH11" s="230"/>
-      <c r="BI11" s="230"/>
-      <c r="BJ11" s="230"/>
-      <c r="BK11" s="230"/>
-      <c r="BL11" s="230"/>
-      <c r="BM11" s="230"/>
-      <c r="BN11" s="230"/>
-      <c r="BO11" s="230"/>
-      <c r="BP11" s="230"/>
-      <c r="BQ11" s="230"/>
-      <c r="BR11" s="230"/>
-      <c r="BS11" s="230"/>
-      <c r="BT11" s="230"/>
-      <c r="BU11" s="230"/>
-      <c r="BV11" s="230"/>
-      <c r="BW11" s="230"/>
-      <c r="BX11" s="230"/>
-      <c r="BY11" s="230"/>
-      <c r="BZ11" s="230"/>
-      <c r="CA11" s="230"/>
-      <c r="CB11" s="230"/>
-      <c r="CC11" s="230"/>
-      <c r="CD11" s="230"/>
-      <c r="CE11" s="230"/>
-      <c r="CF11" s="230"/>
+      <c r="BB11" s="231"/>
+      <c r="BC11" s="231"/>
+      <c r="BD11" s="231"/>
+      <c r="BE11" s="231"/>
+      <c r="BF11" s="231"/>
+      <c r="BG11" s="231"/>
+      <c r="BH11" s="231"/>
+      <c r="BI11" s="231"/>
+      <c r="BJ11" s="231"/>
+      <c r="BK11" s="231"/>
+      <c r="BL11" s="231"/>
+      <c r="BM11" s="231"/>
+      <c r="BN11" s="231"/>
+      <c r="BO11" s="231"/>
+      <c r="BP11" s="231"/>
+      <c r="BQ11" s="231"/>
+      <c r="BR11" s="231"/>
+      <c r="BS11" s="231"/>
+      <c r="BT11" s="231"/>
+      <c r="BU11" s="231"/>
+      <c r="BV11" s="231"/>
+      <c r="BW11" s="231"/>
+      <c r="BX11" s="231"/>
+      <c r="BY11" s="231"/>
+      <c r="BZ11" s="231"/>
+      <c r="CA11" s="231"/>
+      <c r="CB11" s="231"/>
+      <c r="CC11" s="231"/>
+      <c r="CD11" s="231"/>
+      <c r="CE11" s="231"/>
+      <c r="CF11" s="231"/>
       <c r="CI11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="DW11" s="229" t="s">
+      <c r="DW11" s="226" t="s">
         <v>5</v>
       </c>
       <c r="DX11" s="227"/>
@@ -4839,132 +4839,132 @@
       <c r="EF11" s="227"/>
       <c r="EG11" s="227"/>
       <c r="EH11" s="227"/>
-      <c r="EI11" s="230" t="s">
+      <c r="EI11" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="EJ11" s="230"/>
-      <c r="EK11" s="230"/>
-      <c r="EL11" s="230"/>
-      <c r="EM11" s="230"/>
-      <c r="EN11" s="230"/>
-      <c r="EO11" s="230"/>
-      <c r="EP11" s="230"/>
-      <c r="EQ11" s="230"/>
-      <c r="ER11" s="230"/>
-      <c r="ES11" s="230"/>
-      <c r="ET11" s="230"/>
-      <c r="EU11" s="230"/>
-      <c r="EV11" s="230"/>
-      <c r="EW11" s="230"/>
-      <c r="EX11" s="230"/>
-      <c r="EY11" s="230"/>
-      <c r="EZ11" s="230"/>
-      <c r="FA11" s="230"/>
-      <c r="FB11" s="230"/>
-      <c r="FC11" s="230"/>
-      <c r="FD11" s="230"/>
-      <c r="FE11" s="230"/>
-      <c r="FF11" s="230"/>
-      <c r="FG11" s="230"/>
-      <c r="FH11" s="230"/>
-      <c r="FI11" s="230"/>
-      <c r="FJ11" s="230"/>
-      <c r="FK11" s="230"/>
-      <c r="FL11" s="230"/>
-      <c r="FM11" s="230"/>
-      <c r="FN11" s="230"/>
+      <c r="EJ11" s="231"/>
+      <c r="EK11" s="231"/>
+      <c r="EL11" s="231"/>
+      <c r="EM11" s="231"/>
+      <c r="EN11" s="231"/>
+      <c r="EO11" s="231"/>
+      <c r="EP11" s="231"/>
+      <c r="EQ11" s="231"/>
+      <c r="ER11" s="231"/>
+      <c r="ES11" s="231"/>
+      <c r="ET11" s="231"/>
+      <c r="EU11" s="231"/>
+      <c r="EV11" s="231"/>
+      <c r="EW11" s="231"/>
+      <c r="EX11" s="231"/>
+      <c r="EY11" s="231"/>
+      <c r="EZ11" s="231"/>
+      <c r="FA11" s="231"/>
+      <c r="FB11" s="231"/>
+      <c r="FC11" s="231"/>
+      <c r="FD11" s="231"/>
+      <c r="FE11" s="231"/>
+      <c r="FF11" s="231"/>
+      <c r="FG11" s="231"/>
+      <c r="FH11" s="231"/>
+      <c r="FI11" s="231"/>
+      <c r="FJ11" s="231"/>
+      <c r="FK11" s="231"/>
+      <c r="FL11" s="231"/>
+      <c r="FM11" s="231"/>
+      <c r="FN11" s="231"/>
     </row>
     <row r="12" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BB12" s="229" t="s">
+      <c r="BB12" s="226" t="s">
         <v>7</v>
       </c>
       <c r="BC12" s="227"/>
-      <c r="BD12" s="228" t="s">
+      <c r="BD12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="BE12" s="228"/>
-      <c r="BF12" s="228"/>
-      <c r="BG12" s="228"/>
-      <c r="BH12" s="229" t="s">
+      <c r="BE12" s="232"/>
+      <c r="BF12" s="232"/>
+      <c r="BG12" s="232"/>
+      <c r="BH12" s="226" t="s">
         <v>9</v>
       </c>
       <c r="BI12" s="227"/>
-      <c r="BJ12" s="228" t="s">
+      <c r="BJ12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="BK12" s="228"/>
-      <c r="BL12" s="228"/>
-      <c r="BM12" s="228"/>
-      <c r="BN12" s="228"/>
-      <c r="BO12" s="228"/>
-      <c r="BP12" s="228"/>
-      <c r="BQ12" s="228"/>
-      <c r="BR12" s="228"/>
-      <c r="BS12" s="228"/>
-      <c r="BT12" s="228"/>
-      <c r="BU12" s="228"/>
-      <c r="BV12" s="228"/>
-      <c r="BW12" s="229" t="s">
+      <c r="BK12" s="232"/>
+      <c r="BL12" s="232"/>
+      <c r="BM12" s="232"/>
+      <c r="BN12" s="232"/>
+      <c r="BO12" s="232"/>
+      <c r="BP12" s="232"/>
+      <c r="BQ12" s="232"/>
+      <c r="BR12" s="232"/>
+      <c r="BS12" s="232"/>
+      <c r="BT12" s="232"/>
+      <c r="BU12" s="232"/>
+      <c r="BV12" s="232"/>
+      <c r="BW12" s="226" t="s">
         <v>10</v>
       </c>
       <c r="BX12" s="227"/>
       <c r="BY12" s="227"/>
       <c r="BZ12" s="227"/>
-      <c r="CA12" s="228">
+      <c r="CA12" s="232">
         <v>19</v>
       </c>
-      <c r="CB12" s="228"/>
-      <c r="CC12" s="228"/>
-      <c r="CD12" s="228"/>
-      <c r="CE12" s="229" t="s">
+      <c r="CB12" s="232"/>
+      <c r="CC12" s="232"/>
+      <c r="CD12" s="232"/>
+      <c r="CE12" s="226" t="s">
         <v>11</v>
       </c>
       <c r="CF12" s="227"/>
       <c r="CI12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="EJ12" s="229" t="s">
+      <c r="EJ12" s="226" t="s">
         <v>7</v>
       </c>
       <c r="EK12" s="227"/>
-      <c r="EL12" s="228" t="s">
+      <c r="EL12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="EM12" s="228"/>
-      <c r="EN12" s="228"/>
-      <c r="EO12" s="228"/>
-      <c r="EP12" s="229" t="s">
+      <c r="EM12" s="232"/>
+      <c r="EN12" s="232"/>
+      <c r="EO12" s="232"/>
+      <c r="EP12" s="226" t="s">
         <v>9</v>
       </c>
       <c r="EQ12" s="227"/>
-      <c r="ER12" s="228" t="s">
+      <c r="ER12" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="ES12" s="228"/>
-      <c r="ET12" s="228"/>
-      <c r="EU12" s="228"/>
-      <c r="EV12" s="228"/>
-      <c r="EW12" s="228"/>
-      <c r="EX12" s="228"/>
-      <c r="EY12" s="228"/>
-      <c r="EZ12" s="228"/>
-      <c r="FA12" s="228"/>
-      <c r="FB12" s="228"/>
-      <c r="FC12" s="228"/>
-      <c r="FD12" s="228"/>
-      <c r="FE12" s="229" t="s">
+      <c r="ES12" s="232"/>
+      <c r="ET12" s="232"/>
+      <c r="EU12" s="232"/>
+      <c r="EV12" s="232"/>
+      <c r="EW12" s="232"/>
+      <c r="EX12" s="232"/>
+      <c r="EY12" s="232"/>
+      <c r="EZ12" s="232"/>
+      <c r="FA12" s="232"/>
+      <c r="FB12" s="232"/>
+      <c r="FC12" s="232"/>
+      <c r="FD12" s="232"/>
+      <c r="FE12" s="226" t="s">
         <v>10</v>
       </c>
       <c r="FF12" s="227"/>
       <c r="FG12" s="227"/>
       <c r="FH12" s="227"/>
-      <c r="FI12" s="228">
+      <c r="FI12" s="232">
         <v>20</v>
       </c>
-      <c r="FJ12" s="228"/>
-      <c r="FK12" s="228"/>
-      <c r="FL12" s="228"/>
-      <c r="FM12" s="229" t="s">
+      <c r="FJ12" s="232"/>
+      <c r="FK12" s="232"/>
+      <c r="FL12" s="232"/>
+      <c r="FM12" s="226" t="s">
         <v>11</v>
       </c>
       <c r="FN12" s="227"/>
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="16" spans="1:170" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="235" t="s">
+      <c r="A16" s="229" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="227"/>
@@ -5076,7 +5076,7 @@
       <c r="CI16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CJ16" s="235" t="s">
+      <c r="CJ16" s="229" t="s">
         <v>13</v>
       </c>
       <c r="CK16" s="227"/>
@@ -5163,7 +5163,7 @@
       <c r="FN16" s="227"/>
     </row>
     <row r="17" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="234" t="s">
+      <c r="G17" s="233" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="227"/>
@@ -5205,24 +5205,24 @@
       <c r="AR17" s="227"/>
       <c r="AS17" s="227"/>
       <c r="AT17" s="227"/>
-      <c r="AU17" s="233" t="s">
+      <c r="AU17" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="AV17" s="233"/>
-      <c r="AW17" s="233"/>
-      <c r="AX17" s="233"/>
-      <c r="AY17" s="234" t="s">
+      <c r="AV17" s="234"/>
+      <c r="AW17" s="234"/>
+      <c r="AX17" s="234"/>
+      <c r="AY17" s="233" t="s">
         <v>16</v>
       </c>
       <c r="AZ17" s="227"/>
       <c r="BA17" s="227"/>
-      <c r="BB17" s="233" t="s">
+      <c r="BB17" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="BC17" s="233"/>
-      <c r="BD17" s="233"/>
-      <c r="BE17" s="233"/>
-      <c r="BF17" s="234" t="s">
+      <c r="BC17" s="234"/>
+      <c r="BD17" s="234"/>
+      <c r="BE17" s="234"/>
+      <c r="BF17" s="233" t="s">
         <v>17</v>
       </c>
       <c r="BG17" s="227"/>
@@ -5247,7 +5247,7 @@
       <c r="CI17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CV17" s="234" t="s">
+      <c r="CV17" s="233" t="s">
         <v>14</v>
       </c>
       <c r="CW17" s="227"/>
@@ -5289,24 +5289,24 @@
       <c r="EG17" s="227"/>
       <c r="EH17" s="227"/>
       <c r="EI17" s="227"/>
-      <c r="EJ17" s="233" t="s">
+      <c r="EJ17" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="EK17" s="233"/>
-      <c r="EL17" s="233"/>
-      <c r="EM17" s="233"/>
-      <c r="EN17" s="234" t="s">
+      <c r="EK17" s="234"/>
+      <c r="EL17" s="234"/>
+      <c r="EM17" s="234"/>
+      <c r="EN17" s="233" t="s">
         <v>16</v>
       </c>
       <c r="EO17" s="227"/>
       <c r="EP17" s="227"/>
-      <c r="EQ17" s="233" t="s">
+      <c r="EQ17" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="ER17" s="233"/>
-      <c r="ES17" s="233"/>
-      <c r="ET17" s="233"/>
-      <c r="EU17" s="234" t="s">
+      <c r="ER17" s="234"/>
+      <c r="ES17" s="234"/>
+      <c r="ET17" s="234"/>
+      <c r="EU17" s="233" t="s">
         <v>17</v>
       </c>
       <c r="EV17" s="227"/>
@@ -5345,7 +5345,7 @@
       </c>
     </row>
     <row r="21" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="232" t="s">
+      <c r="E21" s="235" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="227"/>
@@ -5355,7 +5355,7 @@
       <c r="J21" s="227"/>
       <c r="K21" s="227"/>
       <c r="L21" s="227"/>
-      <c r="M21" s="226" t="s">
+      <c r="M21" s="236" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="227"/>
@@ -5397,55 +5397,55 @@
       <c r="AX21" s="227"/>
       <c r="AY21" s="227"/>
       <c r="AZ21" s="227"/>
-      <c r="BA21" s="229" t="s">
+      <c r="BA21" s="226" t="s">
         <v>7</v>
       </c>
       <c r="BB21" s="227"/>
-      <c r="BC21" s="228">
+      <c r="BC21" s="232">
         <v>28</v>
       </c>
-      <c r="BD21" s="228"/>
-      <c r="BE21" s="228"/>
-      <c r="BF21" s="228"/>
-      <c r="BG21" s="229" t="s">
+      <c r="BD21" s="232"/>
+      <c r="BE21" s="232"/>
+      <c r="BF21" s="232"/>
+      <c r="BG21" s="226" t="s">
         <v>9</v>
       </c>
       <c r="BH21" s="227"/>
-      <c r="BI21" s="228" t="s">
+      <c r="BI21" s="232" t="s">
         <v>154</v>
       </c>
-      <c r="BJ21" s="228"/>
-      <c r="BK21" s="228"/>
-      <c r="BL21" s="228"/>
-      <c r="BM21" s="228"/>
-      <c r="BN21" s="228"/>
-      <c r="BO21" s="228"/>
-      <c r="BP21" s="228"/>
-      <c r="BQ21" s="228"/>
-      <c r="BR21" s="228"/>
-      <c r="BS21" s="228"/>
-      <c r="BT21" s="228"/>
-      <c r="BU21" s="228"/>
-      <c r="BV21" s="229" t="s">
+      <c r="BJ21" s="232"/>
+      <c r="BK21" s="232"/>
+      <c r="BL21" s="232"/>
+      <c r="BM21" s="232"/>
+      <c r="BN21" s="232"/>
+      <c r="BO21" s="232"/>
+      <c r="BP21" s="232"/>
+      <c r="BQ21" s="232"/>
+      <c r="BR21" s="232"/>
+      <c r="BS21" s="232"/>
+      <c r="BT21" s="232"/>
+      <c r="BU21" s="232"/>
+      <c r="BV21" s="226" t="s">
         <v>10</v>
       </c>
       <c r="BW21" s="227"/>
       <c r="BX21" s="227"/>
       <c r="BY21" s="227"/>
-      <c r="BZ21" s="228">
+      <c r="BZ21" s="232">
         <v>19</v>
       </c>
-      <c r="CA21" s="228"/>
-      <c r="CB21" s="228"/>
-      <c r="CC21" s="228"/>
-      <c r="CD21" s="229" t="s">
+      <c r="CA21" s="232"/>
+      <c r="CB21" s="232"/>
+      <c r="CC21" s="232"/>
+      <c r="CD21" s="226" t="s">
         <v>11</v>
       </c>
       <c r="CE21" s="227"/>
       <c r="CI21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CN21" s="232" t="s">
+      <c r="CN21" s="235" t="s">
         <v>20</v>
       </c>
       <c r="CO21" s="227"/>
@@ -5455,7 +5455,7 @@
       <c r="CS21" s="227"/>
       <c r="CT21" s="227"/>
       <c r="CU21" s="227"/>
-      <c r="CV21" s="226" t="s">
+      <c r="CV21" s="236" t="s">
         <v>21</v>
       </c>
       <c r="CW21" s="227"/>
@@ -5497,54 +5497,54 @@
       <c r="EG21" s="227"/>
       <c r="EH21" s="227"/>
       <c r="EI21" s="227"/>
-      <c r="EJ21" s="229" t="s">
+      <c r="EJ21" s="226" t="s">
         <v>7</v>
       </c>
       <c r="EK21" s="227"/>
-      <c r="EL21" s="228" t="s">
+      <c r="EL21" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="EM21" s="228"/>
-      <c r="EN21" s="228"/>
-      <c r="EO21" s="228"/>
-      <c r="EP21" s="229" t="s">
+      <c r="EM21" s="232"/>
+      <c r="EN21" s="232"/>
+      <c r="EO21" s="232"/>
+      <c r="EP21" s="226" t="s">
         <v>9</v>
       </c>
       <c r="EQ21" s="227"/>
-      <c r="ER21" s="228" t="s">
+      <c r="ER21" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="ES21" s="228"/>
-      <c r="ET21" s="228"/>
-      <c r="EU21" s="228"/>
-      <c r="EV21" s="228"/>
-      <c r="EW21" s="228"/>
-      <c r="EX21" s="228"/>
-      <c r="EY21" s="228"/>
-      <c r="EZ21" s="228"/>
-      <c r="FA21" s="228"/>
-      <c r="FB21" s="228"/>
-      <c r="FC21" s="228"/>
-      <c r="FD21" s="228"/>
-      <c r="FE21" s="229" t="s">
+      <c r="ES21" s="232"/>
+      <c r="ET21" s="232"/>
+      <c r="EU21" s="232"/>
+      <c r="EV21" s="232"/>
+      <c r="EW21" s="232"/>
+      <c r="EX21" s="232"/>
+      <c r="EY21" s="232"/>
+      <c r="EZ21" s="232"/>
+      <c r="FA21" s="232"/>
+      <c r="FB21" s="232"/>
+      <c r="FC21" s="232"/>
+      <c r="FD21" s="232"/>
+      <c r="FE21" s="226" t="s">
         <v>10</v>
       </c>
       <c r="FF21" s="227"/>
       <c r="FG21" s="227"/>
       <c r="FH21" s="227"/>
-      <c r="FI21" s="228">
+      <c r="FI21" s="232">
         <v>20</v>
       </c>
-      <c r="FJ21" s="228"/>
-      <c r="FK21" s="228"/>
-      <c r="FL21" s="228"/>
-      <c r="FM21" s="229" t="s">
+      <c r="FJ21" s="232"/>
+      <c r="FK21" s="232"/>
+      <c r="FL21" s="232"/>
+      <c r="FM21" s="226" t="s">
         <v>11</v>
       </c>
       <c r="FN21" s="227"/>
     </row>
     <row r="22" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BD22" s="231" t="s">
+      <c r="BD22" s="230" t="s">
         <v>22</v>
       </c>
       <c r="BE22" s="227"/>
@@ -5563,26 +5563,26 @@
       <c r="BR22" s="227"/>
       <c r="BS22" s="227"/>
       <c r="BT22" s="227"/>
-      <c r="BU22" s="228">
+      <c r="BU22" s="232">
         <v>1</v>
       </c>
-      <c r="BV22" s="228"/>
-      <c r="BW22" s="228"/>
-      <c r="BX22" s="228"/>
-      <c r="BY22" s="228"/>
-      <c r="BZ22" s="228"/>
-      <c r="CA22" s="228"/>
-      <c r="CB22" s="228"/>
-      <c r="CC22" s="228"/>
-      <c r="CD22" s="228"/>
-      <c r="CE22" s="231" t="s">
+      <c r="BV22" s="232"/>
+      <c r="BW22" s="232"/>
+      <c r="BX22" s="232"/>
+      <c r="BY22" s="232"/>
+      <c r="BZ22" s="232"/>
+      <c r="CA22" s="232"/>
+      <c r="CB22" s="232"/>
+      <c r="CC22" s="232"/>
+      <c r="CD22" s="232"/>
+      <c r="CE22" s="230" t="s">
         <v>23</v>
       </c>
       <c r="CF22" s="227"/>
       <c r="CI22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="EL22" s="231" t="s">
+      <c r="EL22" s="230" t="s">
         <v>22</v>
       </c>
       <c r="EM22" s="227"/>
@@ -5601,19 +5601,19 @@
       <c r="EZ22" s="227"/>
       <c r="FA22" s="227"/>
       <c r="FB22" s="227"/>
-      <c r="FC22" s="228" t="s">
+      <c r="FC22" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="FD22" s="228"/>
-      <c r="FE22" s="228"/>
-      <c r="FF22" s="228"/>
-      <c r="FG22" s="228"/>
-      <c r="FH22" s="228"/>
-      <c r="FI22" s="228"/>
-      <c r="FJ22" s="228"/>
-      <c r="FK22" s="228"/>
-      <c r="FL22" s="228"/>
-      <c r="FM22" s="231" t="s">
+      <c r="FD22" s="232"/>
+      <c r="FE22" s="232"/>
+      <c r="FF22" s="232"/>
+      <c r="FG22" s="232"/>
+      <c r="FH22" s="232"/>
+      <c r="FI22" s="232"/>
+      <c r="FJ22" s="232"/>
+      <c r="FK22" s="232"/>
+      <c r="FL22" s="232"/>
+      <c r="FM22" s="230" t="s">
         <v>23</v>
       </c>
       <c r="FN22" s="227"/>
@@ -5624,7 +5624,7 @@
       </c>
     </row>
     <row r="24" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y24" s="226" t="s">
+      <c r="Y24" s="236" t="s">
         <v>24</v>
       </c>
       <c r="Z24" s="227"/>
@@ -5653,45 +5653,45 @@
       <c r="AW24" s="227"/>
       <c r="AX24" s="227"/>
       <c r="AY24" s="227"/>
-      <c r="AZ24" s="230" t="s">
+      <c r="AZ24" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="BA24" s="230"/>
-      <c r="BB24" s="230"/>
-      <c r="BC24" s="230"/>
-      <c r="BD24" s="230"/>
-      <c r="BE24" s="230"/>
-      <c r="BF24" s="230"/>
-      <c r="BG24" s="230"/>
-      <c r="BH24" s="230"/>
-      <c r="BI24" s="230"/>
-      <c r="BJ24" s="230"/>
-      <c r="BK24" s="230"/>
-      <c r="BL24" s="230"/>
-      <c r="BM24" s="230"/>
-      <c r="BN24" s="230"/>
-      <c r="BO24" s="230"/>
-      <c r="BP24" s="230"/>
-      <c r="BQ24" s="230"/>
-      <c r="BR24" s="230"/>
-      <c r="BS24" s="230"/>
-      <c r="BT24" s="230"/>
-      <c r="BU24" s="230"/>
-      <c r="BV24" s="230"/>
-      <c r="BW24" s="230"/>
-      <c r="BX24" s="230"/>
-      <c r="BY24" s="230"/>
-      <c r="BZ24" s="230"/>
-      <c r="CA24" s="230"/>
-      <c r="CB24" s="230"/>
-      <c r="CC24" s="230"/>
-      <c r="CD24" s="230"/>
-      <c r="CE24" s="230"/>
-      <c r="CF24" s="230"/>
+      <c r="BA24" s="231"/>
+      <c r="BB24" s="231"/>
+      <c r="BC24" s="231"/>
+      <c r="BD24" s="231"/>
+      <c r="BE24" s="231"/>
+      <c r="BF24" s="231"/>
+      <c r="BG24" s="231"/>
+      <c r="BH24" s="231"/>
+      <c r="BI24" s="231"/>
+      <c r="BJ24" s="231"/>
+      <c r="BK24" s="231"/>
+      <c r="BL24" s="231"/>
+      <c r="BM24" s="231"/>
+      <c r="BN24" s="231"/>
+      <c r="BO24" s="231"/>
+      <c r="BP24" s="231"/>
+      <c r="BQ24" s="231"/>
+      <c r="BR24" s="231"/>
+      <c r="BS24" s="231"/>
+      <c r="BT24" s="231"/>
+      <c r="BU24" s="231"/>
+      <c r="BV24" s="231"/>
+      <c r="BW24" s="231"/>
+      <c r="BX24" s="231"/>
+      <c r="BY24" s="231"/>
+      <c r="BZ24" s="231"/>
+      <c r="CA24" s="231"/>
+      <c r="CB24" s="231"/>
+      <c r="CC24" s="231"/>
+      <c r="CD24" s="231"/>
+      <c r="CE24" s="231"/>
+      <c r="CF24" s="231"/>
       <c r="CI24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="DG24" s="226" t="s">
+      <c r="DG24" s="236" t="s">
         <v>24</v>
       </c>
       <c r="DH24" s="227"/>
@@ -5720,221 +5720,221 @@
       <c r="EE24" s="227"/>
       <c r="EF24" s="227"/>
       <c r="EG24" s="227"/>
-      <c r="EH24" s="230" t="s">
+      <c r="EH24" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="EI24" s="230"/>
-      <c r="EJ24" s="230"/>
-      <c r="EK24" s="230"/>
-      <c r="EL24" s="230"/>
-      <c r="EM24" s="230"/>
-      <c r="EN24" s="230"/>
-      <c r="EO24" s="230"/>
-      <c r="EP24" s="230"/>
-      <c r="EQ24" s="230"/>
-      <c r="ER24" s="230"/>
-      <c r="ES24" s="230"/>
-      <c r="ET24" s="230"/>
-      <c r="EU24" s="230"/>
-      <c r="EV24" s="230"/>
-      <c r="EW24" s="230"/>
-      <c r="EX24" s="230"/>
-      <c r="EY24" s="230"/>
-      <c r="EZ24" s="230"/>
-      <c r="FA24" s="230"/>
-      <c r="FB24" s="230"/>
-      <c r="FC24" s="230"/>
-      <c r="FD24" s="230"/>
-      <c r="FE24" s="230"/>
-      <c r="FF24" s="230"/>
-      <c r="FG24" s="230"/>
-      <c r="FH24" s="230"/>
-      <c r="FI24" s="230"/>
-      <c r="FJ24" s="230"/>
-      <c r="FK24" s="230"/>
-      <c r="FL24" s="230"/>
-      <c r="FM24" s="230"/>
-      <c r="FN24" s="230"/>
+      <c r="EI24" s="231"/>
+      <c r="EJ24" s="231"/>
+      <c r="EK24" s="231"/>
+      <c r="EL24" s="231"/>
+      <c r="EM24" s="231"/>
+      <c r="EN24" s="231"/>
+      <c r="EO24" s="231"/>
+      <c r="EP24" s="231"/>
+      <c r="EQ24" s="231"/>
+      <c r="ER24" s="231"/>
+      <c r="ES24" s="231"/>
+      <c r="ET24" s="231"/>
+      <c r="EU24" s="231"/>
+      <c r="EV24" s="231"/>
+      <c r="EW24" s="231"/>
+      <c r="EX24" s="231"/>
+      <c r="EY24" s="231"/>
+      <c r="EZ24" s="231"/>
+      <c r="FA24" s="231"/>
+      <c r="FB24" s="231"/>
+      <c r="FC24" s="231"/>
+      <c r="FD24" s="231"/>
+      <c r="FE24" s="231"/>
+      <c r="FF24" s="231"/>
+      <c r="FG24" s="231"/>
+      <c r="FH24" s="231"/>
+      <c r="FI24" s="231"/>
+      <c r="FJ24" s="231"/>
+      <c r="FK24" s="231"/>
+      <c r="FL24" s="231"/>
+      <c r="FM24" s="231"/>
+      <c r="FN24" s="231"/>
     </row>
     <row r="25" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="228" t="s">
+      <c r="A26" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="228"/>
-      <c r="C26" s="228"/>
-      <c r="D26" s="228"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="228"/>
-      <c r="K26" s="228"/>
-      <c r="L26" s="228"/>
-      <c r="M26" s="228"/>
-      <c r="N26" s="228"/>
-      <c r="O26" s="228"/>
-      <c r="P26" s="228"/>
-      <c r="Q26" s="228"/>
-      <c r="R26" s="228"/>
-      <c r="S26" s="228"/>
-      <c r="T26" s="228"/>
-      <c r="U26" s="228"/>
-      <c r="V26" s="228"/>
-      <c r="W26" s="228"/>
-      <c r="X26" s="228"/>
-      <c r="Y26" s="228"/>
-      <c r="Z26" s="228"/>
-      <c r="AA26" s="228"/>
-      <c r="AB26" s="228"/>
-      <c r="AC26" s="228"/>
-      <c r="AD26" s="228"/>
-      <c r="AE26" s="228"/>
-      <c r="AF26" s="228"/>
-      <c r="AG26" s="228"/>
-      <c r="AH26" s="228"/>
-      <c r="AI26" s="228"/>
-      <c r="AJ26" s="228"/>
-      <c r="AK26" s="228"/>
-      <c r="AL26" s="228"/>
-      <c r="AM26" s="228"/>
-      <c r="AN26" s="228"/>
-      <c r="AO26" s="228"/>
-      <c r="AP26" s="228"/>
-      <c r="AQ26" s="228"/>
-      <c r="AR26" s="228"/>
-      <c r="AS26" s="228"/>
-      <c r="AT26" s="228"/>
-      <c r="AU26" s="228"/>
-      <c r="AV26" s="228"/>
-      <c r="AW26" s="228"/>
-      <c r="AX26" s="228"/>
-      <c r="AY26" s="228"/>
-      <c r="AZ26" s="228"/>
-      <c r="BA26" s="228"/>
-      <c r="BB26" s="228"/>
-      <c r="BC26" s="228"/>
-      <c r="BD26" s="228"/>
-      <c r="BE26" s="228"/>
-      <c r="BF26" s="228"/>
-      <c r="BG26" s="228"/>
-      <c r="BH26" s="228"/>
-      <c r="BI26" s="228"/>
-      <c r="BJ26" s="228"/>
-      <c r="BK26" s="228"/>
-      <c r="BL26" s="228"/>
-      <c r="BM26" s="228"/>
-      <c r="BN26" s="228"/>
-      <c r="BO26" s="228"/>
-      <c r="BP26" s="228"/>
-      <c r="BQ26" s="228"/>
-      <c r="BR26" s="228"/>
-      <c r="BS26" s="228"/>
-      <c r="BT26" s="228"/>
-      <c r="BU26" s="228"/>
-      <c r="BV26" s="228"/>
-      <c r="BW26" s="228"/>
-      <c r="BX26" s="228"/>
-      <c r="BY26" s="228"/>
-      <c r="BZ26" s="228"/>
-      <c r="CA26" s="228"/>
-      <c r="CB26" s="228"/>
-      <c r="CC26" s="228"/>
-      <c r="CD26" s="228"/>
-      <c r="CE26" s="228"/>
-      <c r="CF26" s="228"/>
-      <c r="CG26" s="228"/>
-      <c r="CH26" s="228"/>
-      <c r="CI26" s="228"/>
-      <c r="CJ26" s="228" t="s">
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="232"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="232"/>
+      <c r="O26" s="232"/>
+      <c r="P26" s="232"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="232"/>
+      <c r="S26" s="232"/>
+      <c r="T26" s="232"/>
+      <c r="U26" s="232"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="232"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="232"/>
+      <c r="AA26" s="232"/>
+      <c r="AB26" s="232"/>
+      <c r="AC26" s="232"/>
+      <c r="AD26" s="232"/>
+      <c r="AE26" s="232"/>
+      <c r="AF26" s="232"/>
+      <c r="AG26" s="232"/>
+      <c r="AH26" s="232"/>
+      <c r="AI26" s="232"/>
+      <c r="AJ26" s="232"/>
+      <c r="AK26" s="232"/>
+      <c r="AL26" s="232"/>
+      <c r="AM26" s="232"/>
+      <c r="AN26" s="232"/>
+      <c r="AO26" s="232"/>
+      <c r="AP26" s="232"/>
+      <c r="AQ26" s="232"/>
+      <c r="AR26" s="232"/>
+      <c r="AS26" s="232"/>
+      <c r="AT26" s="232"/>
+      <c r="AU26" s="232"/>
+      <c r="AV26" s="232"/>
+      <c r="AW26" s="232"/>
+      <c r="AX26" s="232"/>
+      <c r="AY26" s="232"/>
+      <c r="AZ26" s="232"/>
+      <c r="BA26" s="232"/>
+      <c r="BB26" s="232"/>
+      <c r="BC26" s="232"/>
+      <c r="BD26" s="232"/>
+      <c r="BE26" s="232"/>
+      <c r="BF26" s="232"/>
+      <c r="BG26" s="232"/>
+      <c r="BH26" s="232"/>
+      <c r="BI26" s="232"/>
+      <c r="BJ26" s="232"/>
+      <c r="BK26" s="232"/>
+      <c r="BL26" s="232"/>
+      <c r="BM26" s="232"/>
+      <c r="BN26" s="232"/>
+      <c r="BO26" s="232"/>
+      <c r="BP26" s="232"/>
+      <c r="BQ26" s="232"/>
+      <c r="BR26" s="232"/>
+      <c r="BS26" s="232"/>
+      <c r="BT26" s="232"/>
+      <c r="BU26" s="232"/>
+      <c r="BV26" s="232"/>
+      <c r="BW26" s="232"/>
+      <c r="BX26" s="232"/>
+      <c r="BY26" s="232"/>
+      <c r="BZ26" s="232"/>
+      <c r="CA26" s="232"/>
+      <c r="CB26" s="232"/>
+      <c r="CC26" s="232"/>
+      <c r="CD26" s="232"/>
+      <c r="CE26" s="232"/>
+      <c r="CF26" s="232"/>
+      <c r="CG26" s="232"/>
+      <c r="CH26" s="232"/>
+      <c r="CI26" s="232"/>
+      <c r="CJ26" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="CK26" s="228"/>
-      <c r="CL26" s="228"/>
-      <c r="CM26" s="228"/>
-      <c r="CN26" s="228"/>
-      <c r="CO26" s="228"/>
-      <c r="CP26" s="228"/>
-      <c r="CQ26" s="228"/>
-      <c r="CR26" s="228"/>
-      <c r="CS26" s="228"/>
-      <c r="CT26" s="228"/>
-      <c r="CU26" s="228"/>
-      <c r="CV26" s="228"/>
-      <c r="CW26" s="228"/>
-      <c r="CX26" s="228"/>
-      <c r="CY26" s="228"/>
-      <c r="CZ26" s="228"/>
-      <c r="DA26" s="228"/>
-      <c r="DB26" s="228"/>
-      <c r="DC26" s="228"/>
-      <c r="DD26" s="228"/>
-      <c r="DE26" s="228"/>
-      <c r="DF26" s="228"/>
-      <c r="DG26" s="228"/>
-      <c r="DH26" s="228"/>
-      <c r="DI26" s="228"/>
-      <c r="DJ26" s="228"/>
-      <c r="DK26" s="228"/>
-      <c r="DL26" s="228"/>
-      <c r="DM26" s="228"/>
-      <c r="DN26" s="228"/>
-      <c r="DO26" s="228"/>
-      <c r="DP26" s="228"/>
-      <c r="DQ26" s="228"/>
-      <c r="DR26" s="228"/>
-      <c r="DS26" s="228"/>
-      <c r="DT26" s="228"/>
-      <c r="DU26" s="228"/>
-      <c r="DV26" s="228"/>
-      <c r="DW26" s="228"/>
-      <c r="DX26" s="228"/>
-      <c r="DY26" s="228"/>
-      <c r="DZ26" s="228"/>
-      <c r="EA26" s="228"/>
-      <c r="EB26" s="228"/>
-      <c r="EC26" s="228"/>
-      <c r="ED26" s="228"/>
-      <c r="EE26" s="228"/>
-      <c r="EF26" s="228"/>
-      <c r="EG26" s="228"/>
-      <c r="EH26" s="228"/>
-      <c r="EI26" s="228"/>
-      <c r="EJ26" s="228"/>
-      <c r="EK26" s="228"/>
-      <c r="EL26" s="228"/>
-      <c r="EM26" s="228"/>
-      <c r="EN26" s="228"/>
-      <c r="EO26" s="228"/>
-      <c r="EP26" s="228"/>
-      <c r="EQ26" s="228"/>
-      <c r="ER26" s="228"/>
-      <c r="ES26" s="228"/>
-      <c r="ET26" s="228"/>
-      <c r="EU26" s="228"/>
-      <c r="EV26" s="228"/>
-      <c r="EW26" s="228"/>
-      <c r="EX26" s="228"/>
-      <c r="EY26" s="228"/>
-      <c r="EZ26" s="228"/>
-      <c r="FA26" s="228"/>
-      <c r="FB26" s="228"/>
-      <c r="FC26" s="228"/>
-      <c r="FD26" s="228"/>
-      <c r="FE26" s="228"/>
-      <c r="FF26" s="228"/>
-      <c r="FG26" s="228"/>
-      <c r="FH26" s="228"/>
-      <c r="FI26" s="228"/>
-      <c r="FJ26" s="228"/>
-      <c r="FK26" s="228"/>
-      <c r="FL26" s="228"/>
-      <c r="FM26" s="228"/>
-      <c r="FN26" s="228"/>
+      <c r="CK26" s="232"/>
+      <c r="CL26" s="232"/>
+      <c r="CM26" s="232"/>
+      <c r="CN26" s="232"/>
+      <c r="CO26" s="232"/>
+      <c r="CP26" s="232"/>
+      <c r="CQ26" s="232"/>
+      <c r="CR26" s="232"/>
+      <c r="CS26" s="232"/>
+      <c r="CT26" s="232"/>
+      <c r="CU26" s="232"/>
+      <c r="CV26" s="232"/>
+      <c r="CW26" s="232"/>
+      <c r="CX26" s="232"/>
+      <c r="CY26" s="232"/>
+      <c r="CZ26" s="232"/>
+      <c r="DA26" s="232"/>
+      <c r="DB26" s="232"/>
+      <c r="DC26" s="232"/>
+      <c r="DD26" s="232"/>
+      <c r="DE26" s="232"/>
+      <c r="DF26" s="232"/>
+      <c r="DG26" s="232"/>
+      <c r="DH26" s="232"/>
+      <c r="DI26" s="232"/>
+      <c r="DJ26" s="232"/>
+      <c r="DK26" s="232"/>
+      <c r="DL26" s="232"/>
+      <c r="DM26" s="232"/>
+      <c r="DN26" s="232"/>
+      <c r="DO26" s="232"/>
+      <c r="DP26" s="232"/>
+      <c r="DQ26" s="232"/>
+      <c r="DR26" s="232"/>
+      <c r="DS26" s="232"/>
+      <c r="DT26" s="232"/>
+      <c r="DU26" s="232"/>
+      <c r="DV26" s="232"/>
+      <c r="DW26" s="232"/>
+      <c r="DX26" s="232"/>
+      <c r="DY26" s="232"/>
+      <c r="DZ26" s="232"/>
+      <c r="EA26" s="232"/>
+      <c r="EB26" s="232"/>
+      <c r="EC26" s="232"/>
+      <c r="ED26" s="232"/>
+      <c r="EE26" s="232"/>
+      <c r="EF26" s="232"/>
+      <c r="EG26" s="232"/>
+      <c r="EH26" s="232"/>
+      <c r="EI26" s="232"/>
+      <c r="EJ26" s="232"/>
+      <c r="EK26" s="232"/>
+      <c r="EL26" s="232"/>
+      <c r="EM26" s="232"/>
+      <c r="EN26" s="232"/>
+      <c r="EO26" s="232"/>
+      <c r="EP26" s="232"/>
+      <c r="EQ26" s="232"/>
+      <c r="ER26" s="232"/>
+      <c r="ES26" s="232"/>
+      <c r="ET26" s="232"/>
+      <c r="EU26" s="232"/>
+      <c r="EV26" s="232"/>
+      <c r="EW26" s="232"/>
+      <c r="EX26" s="232"/>
+      <c r="EY26" s="232"/>
+      <c r="EZ26" s="232"/>
+      <c r="FA26" s="232"/>
+      <c r="FB26" s="232"/>
+      <c r="FC26" s="232"/>
+      <c r="FD26" s="232"/>
+      <c r="FE26" s="232"/>
+      <c r="FF26" s="232"/>
+      <c r="FG26" s="232"/>
+      <c r="FH26" s="232"/>
+      <c r="FI26" s="232"/>
+      <c r="FJ26" s="232"/>
+      <c r="FK26" s="232"/>
+      <c r="FL26" s="232"/>
+      <c r="FM26" s="232"/>
+      <c r="FN26" s="232"/>
     </row>
     <row r="27" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="226" t="s">
+      <c r="A27" s="236" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="227"/>
@@ -5952,165 +5952,165 @@
       <c r="N27" s="227"/>
       <c r="O27" s="227"/>
       <c r="P27" s="227"/>
-      <c r="Q27" s="228" t="s">
+      <c r="Q27" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="R27" s="228"/>
-      <c r="S27" s="228"/>
-      <c r="T27" s="228"/>
-      <c r="U27" s="228"/>
-      <c r="V27" s="228"/>
-      <c r="W27" s="228"/>
-      <c r="X27" s="228"/>
-      <c r="Y27" s="228"/>
-      <c r="Z27" s="228"/>
-      <c r="AA27" s="228"/>
-      <c r="AB27" s="228"/>
-      <c r="AC27" s="228"/>
-      <c r="AD27" s="228"/>
-      <c r="AE27" s="228"/>
-      <c r="AF27" s="228"/>
-      <c r="AG27" s="228"/>
-      <c r="AH27" s="228"/>
-      <c r="AI27" s="228"/>
-      <c r="AJ27" s="228"/>
-      <c r="AK27" s="228"/>
-      <c r="AL27" s="228"/>
-      <c r="AM27" s="228"/>
-      <c r="AN27" s="228"/>
-      <c r="AO27" s="228"/>
-      <c r="AP27" s="228"/>
-      <c r="AQ27" s="228"/>
-      <c r="AR27" s="228"/>
-      <c r="AS27" s="228"/>
-      <c r="AT27" s="228"/>
-      <c r="AU27" s="228"/>
-      <c r="AV27" s="228"/>
-      <c r="AW27" s="228"/>
-      <c r="AX27" s="228"/>
-      <c r="AY27" s="228"/>
-      <c r="AZ27" s="228"/>
-      <c r="BA27" s="228"/>
-      <c r="BB27" s="228"/>
-      <c r="BC27" s="228"/>
-      <c r="BD27" s="228"/>
-      <c r="BE27" s="228"/>
-      <c r="BF27" s="228"/>
-      <c r="BG27" s="228"/>
-      <c r="BH27" s="228"/>
-      <c r="BI27" s="228"/>
-      <c r="BJ27" s="228"/>
-      <c r="BK27" s="228"/>
-      <c r="BL27" s="228"/>
-      <c r="BM27" s="228"/>
-      <c r="BN27" s="228"/>
-      <c r="BO27" s="228"/>
-      <c r="BP27" s="228"/>
-      <c r="BQ27" s="228"/>
-      <c r="BR27" s="228"/>
-      <c r="BS27" s="228"/>
-      <c r="BT27" s="228"/>
-      <c r="BU27" s="228"/>
-      <c r="BV27" s="228"/>
-      <c r="BW27" s="228"/>
-      <c r="BX27" s="228"/>
-      <c r="BY27" s="228"/>
-      <c r="BZ27" s="228"/>
-      <c r="CA27" s="228"/>
-      <c r="CB27" s="228"/>
-      <c r="CC27" s="228"/>
-      <c r="CD27" s="228"/>
-      <c r="CE27" s="228"/>
-      <c r="CF27" s="228"/>
-      <c r="CG27" s="228"/>
-      <c r="CH27" s="228"/>
-      <c r="CI27" s="228"/>
-      <c r="CJ27" s="228"/>
-      <c r="CK27" s="228"/>
-      <c r="CL27" s="228"/>
-      <c r="CM27" s="228"/>
-      <c r="CN27" s="228"/>
-      <c r="CO27" s="228"/>
-      <c r="CP27" s="228"/>
-      <c r="CQ27" s="228"/>
-      <c r="CR27" s="228"/>
-      <c r="CS27" s="228"/>
-      <c r="CT27" s="228"/>
-      <c r="CU27" s="228"/>
-      <c r="CV27" s="228"/>
-      <c r="CW27" s="228"/>
-      <c r="CX27" s="228"/>
-      <c r="CY27" s="228"/>
-      <c r="CZ27" s="228"/>
-      <c r="DA27" s="228"/>
-      <c r="DB27" s="228"/>
-      <c r="DC27" s="228"/>
-      <c r="DD27" s="228"/>
-      <c r="DE27" s="228"/>
-      <c r="DF27" s="228"/>
-      <c r="DG27" s="228"/>
-      <c r="DH27" s="228"/>
-      <c r="DI27" s="228"/>
-      <c r="DJ27" s="228"/>
-      <c r="DK27" s="228"/>
-      <c r="DL27" s="228"/>
-      <c r="DM27" s="228"/>
-      <c r="DN27" s="228"/>
-      <c r="DO27" s="228"/>
-      <c r="DP27" s="228"/>
-      <c r="DQ27" s="228"/>
-      <c r="DR27" s="228"/>
-      <c r="DS27" s="228"/>
-      <c r="DT27" s="228"/>
-      <c r="DU27" s="228"/>
-      <c r="DV27" s="228"/>
-      <c r="DW27" s="228"/>
-      <c r="DX27" s="228"/>
-      <c r="DY27" s="228"/>
-      <c r="DZ27" s="228"/>
-      <c r="EA27" s="228"/>
-      <c r="EB27" s="228"/>
-      <c r="EC27" s="228"/>
-      <c r="ED27" s="228"/>
-      <c r="EE27" s="228"/>
-      <c r="EF27" s="228"/>
-      <c r="EG27" s="228"/>
-      <c r="EH27" s="228"/>
-      <c r="EI27" s="228"/>
-      <c r="EJ27" s="228"/>
-      <c r="EK27" s="228"/>
-      <c r="EL27" s="228"/>
-      <c r="EM27" s="228"/>
-      <c r="EN27" s="228"/>
-      <c r="EO27" s="228"/>
-      <c r="EP27" s="228"/>
-      <c r="EQ27" s="228"/>
-      <c r="ER27" s="228"/>
-      <c r="ES27" s="228"/>
-      <c r="ET27" s="228"/>
-      <c r="EU27" s="228"/>
-      <c r="EV27" s="228"/>
-      <c r="EW27" s="228"/>
-      <c r="EX27" s="228"/>
-      <c r="EY27" s="228"/>
-      <c r="EZ27" s="228"/>
-      <c r="FA27" s="228"/>
-      <c r="FB27" s="228"/>
-      <c r="FC27" s="228"/>
-      <c r="FD27" s="228"/>
-      <c r="FE27" s="228"/>
-      <c r="FF27" s="228"/>
-      <c r="FG27" s="228"/>
-      <c r="FH27" s="228"/>
-      <c r="FI27" s="228"/>
-      <c r="FJ27" s="228"/>
-      <c r="FK27" s="228"/>
-      <c r="FL27" s="228"/>
-      <c r="FM27" s="228"/>
-      <c r="FN27" s="228"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="232"/>
+      <c r="U27" s="232"/>
+      <c r="V27" s="232"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="232"/>
+      <c r="Y27" s="232"/>
+      <c r="Z27" s="232"/>
+      <c r="AA27" s="232"/>
+      <c r="AB27" s="232"/>
+      <c r="AC27" s="232"/>
+      <c r="AD27" s="232"/>
+      <c r="AE27" s="232"/>
+      <c r="AF27" s="232"/>
+      <c r="AG27" s="232"/>
+      <c r="AH27" s="232"/>
+      <c r="AI27" s="232"/>
+      <c r="AJ27" s="232"/>
+      <c r="AK27" s="232"/>
+      <c r="AL27" s="232"/>
+      <c r="AM27" s="232"/>
+      <c r="AN27" s="232"/>
+      <c r="AO27" s="232"/>
+      <c r="AP27" s="232"/>
+      <c r="AQ27" s="232"/>
+      <c r="AR27" s="232"/>
+      <c r="AS27" s="232"/>
+      <c r="AT27" s="232"/>
+      <c r="AU27" s="232"/>
+      <c r="AV27" s="232"/>
+      <c r="AW27" s="232"/>
+      <c r="AX27" s="232"/>
+      <c r="AY27" s="232"/>
+      <c r="AZ27" s="232"/>
+      <c r="BA27" s="232"/>
+      <c r="BB27" s="232"/>
+      <c r="BC27" s="232"/>
+      <c r="BD27" s="232"/>
+      <c r="BE27" s="232"/>
+      <c r="BF27" s="232"/>
+      <c r="BG27" s="232"/>
+      <c r="BH27" s="232"/>
+      <c r="BI27" s="232"/>
+      <c r="BJ27" s="232"/>
+      <c r="BK27" s="232"/>
+      <c r="BL27" s="232"/>
+      <c r="BM27" s="232"/>
+      <c r="BN27" s="232"/>
+      <c r="BO27" s="232"/>
+      <c r="BP27" s="232"/>
+      <c r="BQ27" s="232"/>
+      <c r="BR27" s="232"/>
+      <c r="BS27" s="232"/>
+      <c r="BT27" s="232"/>
+      <c r="BU27" s="232"/>
+      <c r="BV27" s="232"/>
+      <c r="BW27" s="232"/>
+      <c r="BX27" s="232"/>
+      <c r="BY27" s="232"/>
+      <c r="BZ27" s="232"/>
+      <c r="CA27" s="232"/>
+      <c r="CB27" s="232"/>
+      <c r="CC27" s="232"/>
+      <c r="CD27" s="232"/>
+      <c r="CE27" s="232"/>
+      <c r="CF27" s="232"/>
+      <c r="CG27" s="232"/>
+      <c r="CH27" s="232"/>
+      <c r="CI27" s="232"/>
+      <c r="CJ27" s="232"/>
+      <c r="CK27" s="232"/>
+      <c r="CL27" s="232"/>
+      <c r="CM27" s="232"/>
+      <c r="CN27" s="232"/>
+      <c r="CO27" s="232"/>
+      <c r="CP27" s="232"/>
+      <c r="CQ27" s="232"/>
+      <c r="CR27" s="232"/>
+      <c r="CS27" s="232"/>
+      <c r="CT27" s="232"/>
+      <c r="CU27" s="232"/>
+      <c r="CV27" s="232"/>
+      <c r="CW27" s="232"/>
+      <c r="CX27" s="232"/>
+      <c r="CY27" s="232"/>
+      <c r="CZ27" s="232"/>
+      <c r="DA27" s="232"/>
+      <c r="DB27" s="232"/>
+      <c r="DC27" s="232"/>
+      <c r="DD27" s="232"/>
+      <c r="DE27" s="232"/>
+      <c r="DF27" s="232"/>
+      <c r="DG27" s="232"/>
+      <c r="DH27" s="232"/>
+      <c r="DI27" s="232"/>
+      <c r="DJ27" s="232"/>
+      <c r="DK27" s="232"/>
+      <c r="DL27" s="232"/>
+      <c r="DM27" s="232"/>
+      <c r="DN27" s="232"/>
+      <c r="DO27" s="232"/>
+      <c r="DP27" s="232"/>
+      <c r="DQ27" s="232"/>
+      <c r="DR27" s="232"/>
+      <c r="DS27" s="232"/>
+      <c r="DT27" s="232"/>
+      <c r="DU27" s="232"/>
+      <c r="DV27" s="232"/>
+      <c r="DW27" s="232"/>
+      <c r="DX27" s="232"/>
+      <c r="DY27" s="232"/>
+      <c r="DZ27" s="232"/>
+      <c r="EA27" s="232"/>
+      <c r="EB27" s="232"/>
+      <c r="EC27" s="232"/>
+      <c r="ED27" s="232"/>
+      <c r="EE27" s="232"/>
+      <c r="EF27" s="232"/>
+      <c r="EG27" s="232"/>
+      <c r="EH27" s="232"/>
+      <c r="EI27" s="232"/>
+      <c r="EJ27" s="232"/>
+      <c r="EK27" s="232"/>
+      <c r="EL27" s="232"/>
+      <c r="EM27" s="232"/>
+      <c r="EN27" s="232"/>
+      <c r="EO27" s="232"/>
+      <c r="EP27" s="232"/>
+      <c r="EQ27" s="232"/>
+      <c r="ER27" s="232"/>
+      <c r="ES27" s="232"/>
+      <c r="ET27" s="232"/>
+      <c r="EU27" s="232"/>
+      <c r="EV27" s="232"/>
+      <c r="EW27" s="232"/>
+      <c r="EX27" s="232"/>
+      <c r="EY27" s="232"/>
+      <c r="EZ27" s="232"/>
+      <c r="FA27" s="232"/>
+      <c r="FB27" s="232"/>
+      <c r="FC27" s="232"/>
+      <c r="FD27" s="232"/>
+      <c r="FE27" s="232"/>
+      <c r="FF27" s="232"/>
+      <c r="FG27" s="232"/>
+      <c r="FH27" s="232"/>
+      <c r="FI27" s="232"/>
+      <c r="FJ27" s="232"/>
+      <c r="FK27" s="232"/>
+      <c r="FL27" s="232"/>
+      <c r="FM27" s="232"/>
+      <c r="FN27" s="232"/>
     </row>
     <row r="28" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="226" t="s">
+      <c r="A28" s="236" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="227"/>
@@ -6145,322 +6145,322 @@
       <c r="AE28" s="227"/>
       <c r="AF28" s="227"/>
       <c r="AG28" s="227"/>
-      <c r="AH28" s="228" t="s">
+      <c r="AH28" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="AI28" s="228"/>
-      <c r="AJ28" s="228"/>
-      <c r="AK28" s="228"/>
-      <c r="AL28" s="228"/>
-      <c r="AM28" s="228"/>
-      <c r="AN28" s="228"/>
-      <c r="AO28" s="228"/>
-      <c r="AP28" s="228"/>
-      <c r="AQ28" s="228"/>
-      <c r="AR28" s="228"/>
-      <c r="AS28" s="228"/>
-      <c r="AT28" s="228"/>
-      <c r="AU28" s="228"/>
-      <c r="AV28" s="228"/>
-      <c r="AW28" s="228"/>
-      <c r="AX28" s="228"/>
-      <c r="AY28" s="228"/>
-      <c r="AZ28" s="228"/>
-      <c r="BA28" s="228"/>
-      <c r="BB28" s="228"/>
-      <c r="BC28" s="228"/>
-      <c r="BD28" s="228"/>
-      <c r="BE28" s="228"/>
-      <c r="BF28" s="228"/>
-      <c r="BG28" s="228"/>
-      <c r="BH28" s="228"/>
-      <c r="BI28" s="228"/>
-      <c r="BJ28" s="228"/>
-      <c r="BK28" s="228"/>
-      <c r="BL28" s="228"/>
-      <c r="BM28" s="228"/>
-      <c r="BN28" s="228"/>
-      <c r="BO28" s="228"/>
-      <c r="BP28" s="228"/>
-      <c r="BQ28" s="228"/>
-      <c r="BR28" s="228"/>
-      <c r="BS28" s="228"/>
-      <c r="BT28" s="228"/>
-      <c r="BU28" s="228"/>
-      <c r="BV28" s="228"/>
-      <c r="BW28" s="228"/>
-      <c r="BX28" s="228"/>
-      <c r="BY28" s="228"/>
-      <c r="BZ28" s="228"/>
-      <c r="CA28" s="228"/>
-      <c r="CB28" s="228"/>
-      <c r="CC28" s="228"/>
-      <c r="CD28" s="228"/>
-      <c r="CE28" s="228"/>
-      <c r="CF28" s="228"/>
-      <c r="CG28" s="228"/>
-      <c r="CH28" s="228"/>
-      <c r="CI28" s="228"/>
-      <c r="CJ28" s="228"/>
-      <c r="CK28" s="228"/>
-      <c r="CL28" s="228"/>
-      <c r="CM28" s="228"/>
-      <c r="CN28" s="228"/>
-      <c r="CO28" s="228"/>
-      <c r="CP28" s="228"/>
-      <c r="CQ28" s="228"/>
-      <c r="CR28" s="228"/>
-      <c r="CS28" s="228"/>
-      <c r="CT28" s="228"/>
-      <c r="CU28" s="228"/>
-      <c r="CV28" s="228"/>
-      <c r="CW28" s="228"/>
-      <c r="CX28" s="228"/>
-      <c r="CY28" s="228"/>
-      <c r="CZ28" s="228"/>
-      <c r="DA28" s="228"/>
-      <c r="DB28" s="228"/>
-      <c r="DC28" s="228"/>
-      <c r="DD28" s="228"/>
-      <c r="DE28" s="228"/>
-      <c r="DF28" s="228"/>
-      <c r="DG28" s="228"/>
-      <c r="DH28" s="228"/>
-      <c r="DI28" s="228"/>
-      <c r="DJ28" s="228"/>
-      <c r="DK28" s="228"/>
-      <c r="DL28" s="228"/>
-      <c r="DM28" s="228"/>
-      <c r="DN28" s="228"/>
-      <c r="DO28" s="228"/>
-      <c r="DP28" s="228"/>
-      <c r="DQ28" s="228"/>
-      <c r="DR28" s="228"/>
-      <c r="DS28" s="228"/>
-      <c r="DT28" s="228"/>
-      <c r="DU28" s="228"/>
-      <c r="DV28" s="228"/>
-      <c r="DW28" s="228"/>
-      <c r="DX28" s="228"/>
-      <c r="DY28" s="228"/>
-      <c r="DZ28" s="228"/>
-      <c r="EA28" s="228"/>
-      <c r="EB28" s="228"/>
-      <c r="EC28" s="228"/>
-      <c r="ED28" s="228"/>
-      <c r="EE28" s="228"/>
-      <c r="EF28" s="228"/>
-      <c r="EG28" s="228"/>
-      <c r="EH28" s="228"/>
-      <c r="EI28" s="228"/>
-      <c r="EJ28" s="228"/>
-      <c r="EK28" s="228"/>
-      <c r="EL28" s="228"/>
-      <c r="EM28" s="228"/>
-      <c r="EN28" s="228"/>
-      <c r="EO28" s="228"/>
-      <c r="EP28" s="228"/>
-      <c r="EQ28" s="228"/>
-      <c r="ER28" s="228"/>
-      <c r="ES28" s="228"/>
-      <c r="ET28" s="228"/>
-      <c r="EU28" s="228"/>
-      <c r="EV28" s="228"/>
-      <c r="EW28" s="228"/>
-      <c r="EX28" s="228"/>
-      <c r="EY28" s="228"/>
-      <c r="EZ28" s="228"/>
-      <c r="FA28" s="228"/>
-      <c r="FB28" s="228"/>
-      <c r="FC28" s="228"/>
-      <c r="FD28" s="228"/>
-      <c r="FE28" s="228"/>
-      <c r="FF28" s="228"/>
-      <c r="FG28" s="228"/>
-      <c r="FH28" s="228"/>
-      <c r="FI28" s="228"/>
-      <c r="FJ28" s="228"/>
-      <c r="FK28" s="228"/>
-      <c r="FL28" s="228"/>
-      <c r="FM28" s="228"/>
-      <c r="FN28" s="228"/>
+      <c r="AI28" s="232"/>
+      <c r="AJ28" s="232"/>
+      <c r="AK28" s="232"/>
+      <c r="AL28" s="232"/>
+      <c r="AM28" s="232"/>
+      <c r="AN28" s="232"/>
+      <c r="AO28" s="232"/>
+      <c r="AP28" s="232"/>
+      <c r="AQ28" s="232"/>
+      <c r="AR28" s="232"/>
+      <c r="AS28" s="232"/>
+      <c r="AT28" s="232"/>
+      <c r="AU28" s="232"/>
+      <c r="AV28" s="232"/>
+      <c r="AW28" s="232"/>
+      <c r="AX28" s="232"/>
+      <c r="AY28" s="232"/>
+      <c r="AZ28" s="232"/>
+      <c r="BA28" s="232"/>
+      <c r="BB28" s="232"/>
+      <c r="BC28" s="232"/>
+      <c r="BD28" s="232"/>
+      <c r="BE28" s="232"/>
+      <c r="BF28" s="232"/>
+      <c r="BG28" s="232"/>
+      <c r="BH28" s="232"/>
+      <c r="BI28" s="232"/>
+      <c r="BJ28" s="232"/>
+      <c r="BK28" s="232"/>
+      <c r="BL28" s="232"/>
+      <c r="BM28" s="232"/>
+      <c r="BN28" s="232"/>
+      <c r="BO28" s="232"/>
+      <c r="BP28" s="232"/>
+      <c r="BQ28" s="232"/>
+      <c r="BR28" s="232"/>
+      <c r="BS28" s="232"/>
+      <c r="BT28" s="232"/>
+      <c r="BU28" s="232"/>
+      <c r="BV28" s="232"/>
+      <c r="BW28" s="232"/>
+      <c r="BX28" s="232"/>
+      <c r="BY28" s="232"/>
+      <c r="BZ28" s="232"/>
+      <c r="CA28" s="232"/>
+      <c r="CB28" s="232"/>
+      <c r="CC28" s="232"/>
+      <c r="CD28" s="232"/>
+      <c r="CE28" s="232"/>
+      <c r="CF28" s="232"/>
+      <c r="CG28" s="232"/>
+      <c r="CH28" s="232"/>
+      <c r="CI28" s="232"/>
+      <c r="CJ28" s="232"/>
+      <c r="CK28" s="232"/>
+      <c r="CL28" s="232"/>
+      <c r="CM28" s="232"/>
+      <c r="CN28" s="232"/>
+      <c r="CO28" s="232"/>
+      <c r="CP28" s="232"/>
+      <c r="CQ28" s="232"/>
+      <c r="CR28" s="232"/>
+      <c r="CS28" s="232"/>
+      <c r="CT28" s="232"/>
+      <c r="CU28" s="232"/>
+      <c r="CV28" s="232"/>
+      <c r="CW28" s="232"/>
+      <c r="CX28" s="232"/>
+      <c r="CY28" s="232"/>
+      <c r="CZ28" s="232"/>
+      <c r="DA28" s="232"/>
+      <c r="DB28" s="232"/>
+      <c r="DC28" s="232"/>
+      <c r="DD28" s="232"/>
+      <c r="DE28" s="232"/>
+      <c r="DF28" s="232"/>
+      <c r="DG28" s="232"/>
+      <c r="DH28" s="232"/>
+      <c r="DI28" s="232"/>
+      <c r="DJ28" s="232"/>
+      <c r="DK28" s="232"/>
+      <c r="DL28" s="232"/>
+      <c r="DM28" s="232"/>
+      <c r="DN28" s="232"/>
+      <c r="DO28" s="232"/>
+      <c r="DP28" s="232"/>
+      <c r="DQ28" s="232"/>
+      <c r="DR28" s="232"/>
+      <c r="DS28" s="232"/>
+      <c r="DT28" s="232"/>
+      <c r="DU28" s="232"/>
+      <c r="DV28" s="232"/>
+      <c r="DW28" s="232"/>
+      <c r="DX28" s="232"/>
+      <c r="DY28" s="232"/>
+      <c r="DZ28" s="232"/>
+      <c r="EA28" s="232"/>
+      <c r="EB28" s="232"/>
+      <c r="EC28" s="232"/>
+      <c r="ED28" s="232"/>
+      <c r="EE28" s="232"/>
+      <c r="EF28" s="232"/>
+      <c r="EG28" s="232"/>
+      <c r="EH28" s="232"/>
+      <c r="EI28" s="232"/>
+      <c r="EJ28" s="232"/>
+      <c r="EK28" s="232"/>
+      <c r="EL28" s="232"/>
+      <c r="EM28" s="232"/>
+      <c r="EN28" s="232"/>
+      <c r="EO28" s="232"/>
+      <c r="EP28" s="232"/>
+      <c r="EQ28" s="232"/>
+      <c r="ER28" s="232"/>
+      <c r="ES28" s="232"/>
+      <c r="ET28" s="232"/>
+      <c r="EU28" s="232"/>
+      <c r="EV28" s="232"/>
+      <c r="EW28" s="232"/>
+      <c r="EX28" s="232"/>
+      <c r="EY28" s="232"/>
+      <c r="EZ28" s="232"/>
+      <c r="FA28" s="232"/>
+      <c r="FB28" s="232"/>
+      <c r="FC28" s="232"/>
+      <c r="FD28" s="232"/>
+      <c r="FE28" s="232"/>
+      <c r="FF28" s="232"/>
+      <c r="FG28" s="232"/>
+      <c r="FH28" s="232"/>
+      <c r="FI28" s="232"/>
+      <c r="FJ28" s="232"/>
+      <c r="FK28" s="232"/>
+      <c r="FL28" s="232"/>
+      <c r="FM28" s="232"/>
+      <c r="FN28" s="232"/>
     </row>
     <row r="29" spans="1:170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="228" t="s">
+      <c r="A29" s="232" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="228"/>
-      <c r="C29" s="228"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="228"/>
-      <c r="L29" s="228"/>
-      <c r="M29" s="228"/>
-      <c r="N29" s="228"/>
-      <c r="O29" s="228"/>
-      <c r="P29" s="228"/>
-      <c r="Q29" s="228"/>
-      <c r="R29" s="228"/>
-      <c r="S29" s="228"/>
-      <c r="T29" s="228"/>
-      <c r="U29" s="228"/>
-      <c r="V29" s="228"/>
-      <c r="W29" s="228"/>
-      <c r="X29" s="228"/>
-      <c r="Y29" s="228"/>
-      <c r="Z29" s="228"/>
-      <c r="AA29" s="228"/>
-      <c r="AB29" s="228"/>
-      <c r="AC29" s="228"/>
-      <c r="AD29" s="228"/>
-      <c r="AE29" s="228"/>
-      <c r="AF29" s="228"/>
-      <c r="AG29" s="228"/>
-      <c r="AH29" s="228"/>
-      <c r="AI29" s="228"/>
-      <c r="AJ29" s="228"/>
-      <c r="AK29" s="228"/>
-      <c r="AL29" s="228"/>
-      <c r="AM29" s="228"/>
-      <c r="AN29" s="228"/>
-      <c r="AO29" s="228"/>
-      <c r="AP29" s="228"/>
-      <c r="AQ29" s="228"/>
-      <c r="AR29" s="228"/>
-      <c r="AS29" s="228"/>
-      <c r="AT29" s="228"/>
-      <c r="AU29" s="228"/>
-      <c r="AV29" s="228"/>
-      <c r="AW29" s="228"/>
-      <c r="AX29" s="228"/>
-      <c r="AY29" s="228"/>
-      <c r="AZ29" s="228"/>
-      <c r="BA29" s="228"/>
-      <c r="BB29" s="228"/>
-      <c r="BC29" s="228"/>
-      <c r="BD29" s="228"/>
-      <c r="BE29" s="228"/>
-      <c r="BF29" s="228"/>
-      <c r="BG29" s="228"/>
-      <c r="BH29" s="228"/>
-      <c r="BI29" s="228"/>
-      <c r="BJ29" s="228"/>
-      <c r="BK29" s="228"/>
-      <c r="BL29" s="228"/>
-      <c r="BM29" s="228"/>
-      <c r="BN29" s="228"/>
-      <c r="BO29" s="228"/>
-      <c r="BP29" s="228"/>
-      <c r="BQ29" s="228"/>
-      <c r="BR29" s="228"/>
-      <c r="BS29" s="228"/>
-      <c r="BT29" s="228"/>
-      <c r="BU29" s="228"/>
-      <c r="BV29" s="228"/>
-      <c r="BW29" s="228"/>
-      <c r="BX29" s="228"/>
-      <c r="BY29" s="228"/>
-      <c r="BZ29" s="228"/>
-      <c r="CA29" s="228"/>
-      <c r="CB29" s="228"/>
-      <c r="CC29" s="228"/>
-      <c r="CD29" s="228"/>
-      <c r="CE29" s="228"/>
-      <c r="CF29" s="228"/>
-      <c r="CG29" s="228"/>
-      <c r="CH29" s="228"/>
-      <c r="CI29" s="228"/>
-      <c r="CJ29" s="228"/>
-      <c r="CK29" s="228"/>
-      <c r="CL29" s="228"/>
-      <c r="CM29" s="228"/>
-      <c r="CN29" s="228"/>
-      <c r="CO29" s="228"/>
-      <c r="CP29" s="228"/>
-      <c r="CQ29" s="228"/>
-      <c r="CR29" s="228"/>
-      <c r="CS29" s="228"/>
-      <c r="CT29" s="228"/>
-      <c r="CU29" s="228"/>
-      <c r="CV29" s="228"/>
-      <c r="CW29" s="228"/>
-      <c r="CX29" s="228"/>
-      <c r="CY29" s="228"/>
-      <c r="CZ29" s="228"/>
-      <c r="DA29" s="228"/>
-      <c r="DB29" s="228"/>
-      <c r="DC29" s="228"/>
-      <c r="DD29" s="228"/>
-      <c r="DE29" s="228"/>
-      <c r="DF29" s="228"/>
-      <c r="DG29" s="228"/>
-      <c r="DH29" s="228"/>
-      <c r="DI29" s="228"/>
-      <c r="DJ29" s="228"/>
-      <c r="DK29" s="228"/>
-      <c r="DL29" s="228"/>
-      <c r="DM29" s="228"/>
-      <c r="DN29" s="228"/>
-      <c r="DO29" s="228"/>
-      <c r="DP29" s="228"/>
-      <c r="DQ29" s="228"/>
-      <c r="DR29" s="228"/>
-      <c r="DS29" s="228"/>
-      <c r="DT29" s="228"/>
-      <c r="DU29" s="228"/>
-      <c r="DV29" s="228"/>
-      <c r="DW29" s="228"/>
-      <c r="DX29" s="228"/>
-      <c r="DY29" s="228"/>
-      <c r="DZ29" s="228"/>
-      <c r="EA29" s="228"/>
-      <c r="EB29" s="228"/>
-      <c r="EC29" s="228"/>
-      <c r="ED29" s="228"/>
-      <c r="EE29" s="228"/>
-      <c r="EF29" s="228"/>
-      <c r="EG29" s="228"/>
-      <c r="EH29" s="228"/>
-      <c r="EI29" s="228"/>
-      <c r="EJ29" s="228"/>
-      <c r="EK29" s="228"/>
-      <c r="EL29" s="228"/>
-      <c r="EM29" s="228"/>
-      <c r="EN29" s="228"/>
-      <c r="EO29" s="228"/>
-      <c r="EP29" s="228"/>
-      <c r="EQ29" s="228"/>
-      <c r="ER29" s="228"/>
-      <c r="ES29" s="228"/>
-      <c r="ET29" s="228"/>
-      <c r="EU29" s="228"/>
-      <c r="EV29" s="228"/>
-      <c r="EW29" s="228"/>
-      <c r="EX29" s="228"/>
-      <c r="EY29" s="228"/>
-      <c r="EZ29" s="228"/>
-      <c r="FA29" s="228"/>
-      <c r="FB29" s="228"/>
-      <c r="FC29" s="228"/>
-      <c r="FD29" s="228"/>
-      <c r="FE29" s="228"/>
-      <c r="FF29" s="228"/>
-      <c r="FG29" s="228"/>
-      <c r="FH29" s="228"/>
-      <c r="FI29" s="228"/>
-      <c r="FJ29" s="228"/>
-      <c r="FK29" s="228"/>
-      <c r="FL29" s="228"/>
-      <c r="FM29" s="228"/>
-      <c r="FN29" s="228"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="232"/>
+      <c r="G29" s="232"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="232"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="232"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="232"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="232"/>
+      <c r="W29" s="232"/>
+      <c r="X29" s="232"/>
+      <c r="Y29" s="232"/>
+      <c r="Z29" s="232"/>
+      <c r="AA29" s="232"/>
+      <c r="AB29" s="232"/>
+      <c r="AC29" s="232"/>
+      <c r="AD29" s="232"/>
+      <c r="AE29" s="232"/>
+      <c r="AF29" s="232"/>
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="232"/>
+      <c r="AI29" s="232"/>
+      <c r="AJ29" s="232"/>
+      <c r="AK29" s="232"/>
+      <c r="AL29" s="232"/>
+      <c r="AM29" s="232"/>
+      <c r="AN29" s="232"/>
+      <c r="AO29" s="232"/>
+      <c r="AP29" s="232"/>
+      <c r="AQ29" s="232"/>
+      <c r="AR29" s="232"/>
+      <c r="AS29" s="232"/>
+      <c r="AT29" s="232"/>
+      <c r="AU29" s="232"/>
+      <c r="AV29" s="232"/>
+      <c r="AW29" s="232"/>
+      <c r="AX29" s="232"/>
+      <c r="AY29" s="232"/>
+      <c r="AZ29" s="232"/>
+      <c r="BA29" s="232"/>
+      <c r="BB29" s="232"/>
+      <c r="BC29" s="232"/>
+      <c r="BD29" s="232"/>
+      <c r="BE29" s="232"/>
+      <c r="BF29" s="232"/>
+      <c r="BG29" s="232"/>
+      <c r="BH29" s="232"/>
+      <c r="BI29" s="232"/>
+      <c r="BJ29" s="232"/>
+      <c r="BK29" s="232"/>
+      <c r="BL29" s="232"/>
+      <c r="BM29" s="232"/>
+      <c r="BN29" s="232"/>
+      <c r="BO29" s="232"/>
+      <c r="BP29" s="232"/>
+      <c r="BQ29" s="232"/>
+      <c r="BR29" s="232"/>
+      <c r="BS29" s="232"/>
+      <c r="BT29" s="232"/>
+      <c r="BU29" s="232"/>
+      <c r="BV29" s="232"/>
+      <c r="BW29" s="232"/>
+      <c r="BX29" s="232"/>
+      <c r="BY29" s="232"/>
+      <c r="BZ29" s="232"/>
+      <c r="CA29" s="232"/>
+      <c r="CB29" s="232"/>
+      <c r="CC29" s="232"/>
+      <c r="CD29" s="232"/>
+      <c r="CE29" s="232"/>
+      <c r="CF29" s="232"/>
+      <c r="CG29" s="232"/>
+      <c r="CH29" s="232"/>
+      <c r="CI29" s="232"/>
+      <c r="CJ29" s="232"/>
+      <c r="CK29" s="232"/>
+      <c r="CL29" s="232"/>
+      <c r="CM29" s="232"/>
+      <c r="CN29" s="232"/>
+      <c r="CO29" s="232"/>
+      <c r="CP29" s="232"/>
+      <c r="CQ29" s="232"/>
+      <c r="CR29" s="232"/>
+      <c r="CS29" s="232"/>
+      <c r="CT29" s="232"/>
+      <c r="CU29" s="232"/>
+      <c r="CV29" s="232"/>
+      <c r="CW29" s="232"/>
+      <c r="CX29" s="232"/>
+      <c r="CY29" s="232"/>
+      <c r="CZ29" s="232"/>
+      <c r="DA29" s="232"/>
+      <c r="DB29" s="232"/>
+      <c r="DC29" s="232"/>
+      <c r="DD29" s="232"/>
+      <c r="DE29" s="232"/>
+      <c r="DF29" s="232"/>
+      <c r="DG29" s="232"/>
+      <c r="DH29" s="232"/>
+      <c r="DI29" s="232"/>
+      <c r="DJ29" s="232"/>
+      <c r="DK29" s="232"/>
+      <c r="DL29" s="232"/>
+      <c r="DM29" s="232"/>
+      <c r="DN29" s="232"/>
+      <c r="DO29" s="232"/>
+      <c r="DP29" s="232"/>
+      <c r="DQ29" s="232"/>
+      <c r="DR29" s="232"/>
+      <c r="DS29" s="232"/>
+      <c r="DT29" s="232"/>
+      <c r="DU29" s="232"/>
+      <c r="DV29" s="232"/>
+      <c r="DW29" s="232"/>
+      <c r="DX29" s="232"/>
+      <c r="DY29" s="232"/>
+      <c r="DZ29" s="232"/>
+      <c r="EA29" s="232"/>
+      <c r="EB29" s="232"/>
+      <c r="EC29" s="232"/>
+      <c r="ED29" s="232"/>
+      <c r="EE29" s="232"/>
+      <c r="EF29" s="232"/>
+      <c r="EG29" s="232"/>
+      <c r="EH29" s="232"/>
+      <c r="EI29" s="232"/>
+      <c r="EJ29" s="232"/>
+      <c r="EK29" s="232"/>
+      <c r="EL29" s="232"/>
+      <c r="EM29" s="232"/>
+      <c r="EN29" s="232"/>
+      <c r="EO29" s="232"/>
+      <c r="EP29" s="232"/>
+      <c r="EQ29" s="232"/>
+      <c r="ER29" s="232"/>
+      <c r="ES29" s="232"/>
+      <c r="ET29" s="232"/>
+      <c r="EU29" s="232"/>
+      <c r="EV29" s="232"/>
+      <c r="EW29" s="232"/>
+      <c r="EX29" s="232"/>
+      <c r="EY29" s="232"/>
+      <c r="EZ29" s="232"/>
+      <c r="FA29" s="232"/>
+      <c r="FB29" s="232"/>
+      <c r="FC29" s="232"/>
+      <c r="FD29" s="232"/>
+      <c r="FE29" s="232"/>
+      <c r="FF29" s="232"/>
+      <c r="FG29" s="232"/>
+      <c r="FH29" s="232"/>
+      <c r="FI29" s="232"/>
+      <c r="FJ29" s="232"/>
+      <c r="FK29" s="232"/>
+      <c r="FL29" s="232"/>
+      <c r="FM29" s="232"/>
+      <c r="FN29" s="232"/>
     </row>
     <row r="30" spans="1:170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="229" t="s">
+      <c r="A30" s="226" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="227"/>
@@ -6635,23 +6635,45 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A1:FN1"/>
-    <mergeCell ref="A2:FN2"/>
-    <mergeCell ref="A3:FN3"/>
-    <mergeCell ref="A4:FN4"/>
-    <mergeCell ref="AW10:CF10"/>
-    <mergeCell ref="EE10:FN10"/>
-    <mergeCell ref="FE12:FH12"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="BA11:CF11"/>
-    <mergeCell ref="DW11:EH11"/>
-    <mergeCell ref="EI11:FN11"/>
-    <mergeCell ref="BB12:BC12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="BH12:BI12"/>
-    <mergeCell ref="BJ12:BV12"/>
-    <mergeCell ref="BW12:BZ12"/>
-    <mergeCell ref="CA12:CD12"/>
+    <mergeCell ref="A30:FN30"/>
+    <mergeCell ref="Y24:AY24"/>
+    <mergeCell ref="AZ24:CF24"/>
+    <mergeCell ref="DG24:EG24"/>
+    <mergeCell ref="EH24:FN24"/>
+    <mergeCell ref="A26:CI26"/>
+    <mergeCell ref="CJ26:FN26"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="Q27:FN27"/>
+    <mergeCell ref="A28:AG28"/>
+    <mergeCell ref="AH28:FN28"/>
+    <mergeCell ref="A29:FN29"/>
+    <mergeCell ref="BD22:BT22"/>
+    <mergeCell ref="BU22:CD22"/>
+    <mergeCell ref="CE22:CF22"/>
+    <mergeCell ref="EL22:FB22"/>
+    <mergeCell ref="FC22:FL22"/>
+    <mergeCell ref="FM22:FN22"/>
+    <mergeCell ref="EL21:EO21"/>
+    <mergeCell ref="EP21:EQ21"/>
+    <mergeCell ref="ER21:FD21"/>
+    <mergeCell ref="FE21:FH21"/>
+    <mergeCell ref="FI21:FL21"/>
+    <mergeCell ref="FM21:FN21"/>
+    <mergeCell ref="BV21:BY21"/>
+    <mergeCell ref="BZ21:CC21"/>
+    <mergeCell ref="CD21:CE21"/>
+    <mergeCell ref="CN21:CU21"/>
+    <mergeCell ref="CV21:EI21"/>
+    <mergeCell ref="EJ21:EK21"/>
+    <mergeCell ref="EJ17:EM17"/>
+    <mergeCell ref="EN17:EP17"/>
+    <mergeCell ref="EQ17:ET17"/>
+    <mergeCell ref="EU17:FN17"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="M21:AZ21"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BC21:BF21"/>
+    <mergeCell ref="BG21:BH21"/>
     <mergeCell ref="BI21:BU21"/>
     <mergeCell ref="FI12:FL12"/>
     <mergeCell ref="FM12:FN12"/>
@@ -6668,45 +6690,23 @@
     <mergeCell ref="EL12:EO12"/>
     <mergeCell ref="EP12:EQ12"/>
     <mergeCell ref="ER12:FD12"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="M21:AZ21"/>
-    <mergeCell ref="BA21:BB21"/>
-    <mergeCell ref="BC21:BF21"/>
-    <mergeCell ref="BG21:BH21"/>
-    <mergeCell ref="EJ21:EK21"/>
-    <mergeCell ref="EJ17:EM17"/>
-    <mergeCell ref="EN17:EP17"/>
-    <mergeCell ref="EQ17:ET17"/>
-    <mergeCell ref="EU17:FN17"/>
-    <mergeCell ref="BV21:BY21"/>
-    <mergeCell ref="BZ21:CC21"/>
-    <mergeCell ref="CD21:CE21"/>
-    <mergeCell ref="CN21:CU21"/>
-    <mergeCell ref="CV21:EI21"/>
-    <mergeCell ref="FM22:FN22"/>
-    <mergeCell ref="EL21:EO21"/>
-    <mergeCell ref="EP21:EQ21"/>
-    <mergeCell ref="ER21:FD21"/>
-    <mergeCell ref="FE21:FH21"/>
-    <mergeCell ref="FI21:FL21"/>
-    <mergeCell ref="FM21:FN21"/>
-    <mergeCell ref="BD22:BT22"/>
-    <mergeCell ref="BU22:CD22"/>
-    <mergeCell ref="CE22:CF22"/>
-    <mergeCell ref="EL22:FB22"/>
-    <mergeCell ref="FC22:FL22"/>
-    <mergeCell ref="A30:FN30"/>
-    <mergeCell ref="Y24:AY24"/>
-    <mergeCell ref="AZ24:CF24"/>
-    <mergeCell ref="DG24:EG24"/>
-    <mergeCell ref="EH24:FN24"/>
-    <mergeCell ref="A26:CI26"/>
-    <mergeCell ref="CJ26:FN26"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="Q27:FN27"/>
-    <mergeCell ref="A28:AG28"/>
-    <mergeCell ref="AH28:FN28"/>
-    <mergeCell ref="A29:FN29"/>
+    <mergeCell ref="FE12:FH12"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="BA11:CF11"/>
+    <mergeCell ref="DW11:EH11"/>
+    <mergeCell ref="EI11:FN11"/>
+    <mergeCell ref="BB12:BC12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="BH12:BI12"/>
+    <mergeCell ref="BJ12:BV12"/>
+    <mergeCell ref="BW12:BZ12"/>
+    <mergeCell ref="CA12:CD12"/>
+    <mergeCell ref="A1:FN1"/>
+    <mergeCell ref="A2:FN2"/>
+    <mergeCell ref="A3:FN3"/>
+    <mergeCell ref="A4:FN4"/>
+    <mergeCell ref="AW10:CF10"/>
+    <mergeCell ref="EE10:FN10"/>
   </mergeCells>
   <pageMargins left="0.39370078739999997" right="0.39370078739999997" top="0.78740157479999995" bottom="0.39370078739999997" header="0.299212598424" footer="0.18897637795199998"/>
   <pageSetup paperSize="9" scale="96" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -6719,7 +6719,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6734,7 +6734,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="242" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="227"/>
@@ -6762,49 +6762,49 @@
       <c r="X1" s="227"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="237" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="251" t="s">
+      <c r="C2" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="251" t="s">
+      <c r="D2" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="251" t="s">
+      <c r="E2" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="253" t="s">
+      <c r="F2" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="255"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="241"/>
     </row>
     <row r="3" spans="1:24" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="259"/>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
+      <c r="A3" s="251"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
       <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
@@ -6938,44 +6938,44 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="254"/>
-      <c r="P5" s="254"/>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="254"/>
-      <c r="T5" s="254"/>
-      <c r="U5" s="254"/>
-      <c r="V5" s="254"/>
-      <c r="W5" s="254"/>
-      <c r="X5" s="255"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="240"/>
+      <c r="L5" s="240"/>
+      <c r="M5" s="240"/>
+      <c r="N5" s="240"/>
+      <c r="O5" s="240"/>
+      <c r="P5" s="240"/>
+      <c r="Q5" s="240"/>
+      <c r="R5" s="240"/>
+      <c r="S5" s="240"/>
+      <c r="T5" s="240"/>
+      <c r="U5" s="240"/>
+      <c r="V5" s="240"/>
+      <c r="W5" s="240"/>
+      <c r="X5" s="241"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="247" t="s">
+      <c r="C6" s="246" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="249" t="s">
+      <c r="D6" s="248" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -7011,10 +7011,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="246"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="250"/>
+      <c r="A7" s="245"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="11" t="s">
         <v>86</v>
       </c>
@@ -7042,16 +7042,16 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="245" t="s">
+      <c r="A8" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="247" t="s">
+      <c r="B8" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="247" t="s">
+      <c r="C8" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="249" t="s">
+      <c r="D8" s="248" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -7091,10 +7091,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="246"/>
-      <c r="B9" s="248"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="250"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="249"/>
       <c r="E9" s="11" t="s">
         <v>86</v>
       </c>
@@ -7122,16 +7122,16 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="247" t="s">
+      <c r="C10" s="246" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="249" t="s">
+      <c r="D10" s="248" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -7169,10 +7169,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="246"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="250"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="249"/>
       <c r="E11" s="11" t="s">
         <v>86</v>
       </c>
@@ -7200,12 +7200,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="245" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="247"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="249"/>
+      <c r="A12" s="244"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="248"/>
       <c r="E12" s="10" t="s">
         <v>85</v>
       </c>
@@ -7233,10 +7231,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="246"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="250"/>
+      <c r="A13" s="245"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="249"/>
       <c r="E13" s="11" t="s">
         <v>86</v>
       </c>
@@ -7264,12 +7262,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="247"/>
-      <c r="C14" s="247"/>
-      <c r="D14" s="249"/>
+      <c r="A14" s="244"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="248"/>
       <c r="E14" s="10" t="s">
         <v>85</v>
       </c>
@@ -7297,10 +7293,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="246"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="250"/>
+      <c r="A15" s="245"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="249"/>
       <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
@@ -7328,12 +7324,10 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="247"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="249"/>
+      <c r="A16" s="244"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="248"/>
       <c r="E16" s="10" t="s">
         <v>85</v>
       </c>
@@ -7361,10 +7355,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="246"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="250"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="249"/>
       <c r="E17" s="11" t="s">
         <v>86</v>
       </c>
@@ -7392,10 +7386,10 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="245"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="249"/>
+      <c r="A18" s="244"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="248"/>
       <c r="E18" s="10" t="s">
         <v>85</v>
       </c>
@@ -7423,10 +7417,10 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="246"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="250"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="249"/>
       <c r="E19" s="11" t="s">
         <v>86</v>
       </c>
@@ -7454,10 +7448,10 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="245"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="249"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="248"/>
       <c r="E20" s="10" t="s">
         <v>85</v>
       </c>
@@ -7485,10 +7479,10 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="246"/>
-      <c r="B21" s="248"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="250"/>
+      <c r="A21" s="245"/>
+      <c r="B21" s="247"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="249"/>
       <c r="E21" s="11" t="s">
         <v>86</v>
       </c>
@@ -7516,10 +7510,10 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="245"/>
-      <c r="B22" s="247"/>
-      <c r="C22" s="247"/>
-      <c r="D22" s="249"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="248"/>
       <c r="E22" s="10" t="s">
         <v>85</v>
       </c>
@@ -7547,10 +7541,10 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="246"/>
-      <c r="B23" s="248"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="250"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="11" t="s">
         <v>86</v>
       </c>
@@ -7578,10 +7572,10 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="245"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="249"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="248"/>
       <c r="E24" s="10" t="s">
         <v>85</v>
       </c>
@@ -7609,10 +7603,10 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="246"/>
-      <c r="B25" s="248"/>
-      <c r="C25" s="248"/>
-      <c r="D25" s="250"/>
+      <c r="A25" s="245"/>
+      <c r="B25" s="247"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="249"/>
       <c r="E25" s="11" t="s">
         <v>86</v>
       </c>
@@ -7640,15 +7634,15 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="252" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="239" t="s">
+      <c r="B26" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="240"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="241"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="256"/>
       <c r="F26" s="33">
         <f t="shared" ref="F26:X26" si="1">F24+F22+F20+F18+F16+F14+F12+F10+F8+F6</f>
         <v>64</v>
@@ -7727,13 +7721,13 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="238"/>
-      <c r="B27" s="242" t="s">
+      <c r="A27" s="253"/>
+      <c r="B27" s="257" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="244"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="259"/>
       <c r="F27" s="34">
         <f t="shared" ref="F27:X27" si="2">F25+F23+F21+F19+F17+F15+F13+F11+F9+F7</f>
         <v>0</v>
@@ -7813,42 +7807,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:X2"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -7864,6 +7822,42 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:X2"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078739999997" right="0.39370078739999997" top="0.78740157479999995" bottom="0.39370078739999997" header="0.299212598424" footer="0.18897637795199998"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -7875,8 +7869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7891,49 +7885,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="237" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="251" t="s">
+      <c r="C1" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="251" t="s">
+      <c r="E1" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="255"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="240"/>
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="241"/>
     </row>
     <row r="2" spans="1:24" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="259"/>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
       <c r="F2" s="6" t="s">
         <v>39</v>
       </c>
@@ -8067,44 +8061,44 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="268" t="s">
+      <c r="A4" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="255"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="240"/>
+      <c r="V4" s="240"/>
+      <c r="W4" s="240"/>
+      <c r="X4" s="241"/>
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="246" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="247" t="s">
+      <c r="C5" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="249" t="s">
+      <c r="D5" s="248" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -8140,10 +8134,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="246"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="250"/>
+      <c r="A6" s="245"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="249"/>
       <c r="E6" s="11" t="s">
         <v>86</v>
       </c>
@@ -8171,12 +8165,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="245" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="249"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="10" t="s">
         <v>85</v>
       </c>
@@ -8204,10 +8196,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="246"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="250"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="11" t="s">
         <v>86</v>
       </c>
@@ -8235,12 +8227,10 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="249"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="10" t="s">
         <v>85</v>
       </c>
@@ -8268,10 +8258,10 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="246"/>
-      <c r="B10" s="248"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="250"/>
+      <c r="A10" s="245"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="249"/>
       <c r="E10" s="11" t="s">
         <v>86</v>
       </c>
@@ -8299,12 +8289,10 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="249"/>
+      <c r="A11" s="244"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="10" t="s">
         <v>85</v>
       </c>
@@ -8332,10 +8320,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="246"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="250"/>
+      <c r="A12" s="245"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="249"/>
       <c r="E12" s="11" t="s">
         <v>86</v>
       </c>
@@ -8363,12 +8351,10 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="245" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="247"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="249"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="248"/>
       <c r="E13" s="10" t="s">
         <v>85</v>
       </c>
@@ -8396,10 +8382,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="246"/>
-      <c r="B14" s="248"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="250"/>
+      <c r="A14" s="245"/>
+      <c r="B14" s="247"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="249"/>
       <c r="E14" s="11" t="s">
         <v>86</v>
       </c>
@@ -8427,12 +8413,10 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="247"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="249"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="248"/>
       <c r="E15" s="10" t="s">
         <v>85</v>
       </c>
@@ -8460,10 +8444,10 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="246"/>
-      <c r="B16" s="248"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="250"/>
+      <c r="A16" s="245"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="249"/>
       <c r="E16" s="11" t="s">
         <v>86</v>
       </c>
@@ -8491,12 +8475,10 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="247"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="249"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="248"/>
       <c r="E17" s="10" t="s">
         <v>85</v>
       </c>
@@ -8524,10 +8506,10 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="246"/>
-      <c r="B18" s="248"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="250"/>
+      <c r="A18" s="245"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="249"/>
       <c r="E18" s="11" t="s">
         <v>86</v>
       </c>
@@ -8555,12 +8537,10 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="245" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="249"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="10" t="s">
         <v>85</v>
       </c>
@@ -8588,10 +8568,10 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="246"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="250"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="247"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="249"/>
       <c r="E20" s="11" t="s">
         <v>86</v>
       </c>
@@ -8619,12 +8599,10 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="247"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="249"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="248"/>
       <c r="E21" s="10" t="s">
         <v>85</v>
       </c>
@@ -8652,10 +8630,10 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="246"/>
-      <c r="B22" s="248"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="250"/>
+      <c r="A22" s="245"/>
+      <c r="B22" s="247"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="249"/>
       <c r="E22" s="11" t="s">
         <v>86</v>
       </c>
@@ -8683,12 +8661,10 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="247"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="249"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="10" t="s">
         <v>85</v>
       </c>
@@ -8716,10 +8692,10 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="246"/>
-      <c r="B24" s="248"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="250"/>
+      <c r="A24" s="245"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="249"/>
       <c r="E24" s="11" t="s">
         <v>86</v>
       </c>
@@ -8747,12 +8723,10 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="247"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="249"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="248"/>
       <c r="E25" s="10" t="s">
         <v>85</v>
       </c>
@@ -8780,10 +8754,10 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="246"/>
-      <c r="B26" s="248"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="250"/>
+      <c r="A26" s="245"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="249"/>
       <c r="E26" s="11" t="s">
         <v>86</v>
       </c>
@@ -8811,12 +8785,10 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="245" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="247"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="249"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="10" t="s">
         <v>85</v>
       </c>
@@ -8844,10 +8816,10 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="246"/>
-      <c r="B28" s="248"/>
-      <c r="C28" s="248"/>
-      <c r="D28" s="250"/>
+      <c r="A28" s="245"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="249"/>
       <c r="E28" s="11" t="s">
         <v>86</v>
       </c>
@@ -8875,12 +8847,10 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="247"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="249"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="248"/>
       <c r="E29" s="10" t="s">
         <v>85</v>
       </c>
@@ -8908,10 +8878,10 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="246"/>
-      <c r="B30" s="248"/>
-      <c r="C30" s="248"/>
-      <c r="D30" s="250"/>
+      <c r="A30" s="245"/>
+      <c r="B30" s="247"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="249"/>
       <c r="E30" s="11" t="s">
         <v>86</v>
       </c>
@@ -8939,12 +8909,10 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="247"/>
-      <c r="C31" s="247"/>
-      <c r="D31" s="249"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="248"/>
       <c r="E31" s="10" t="s">
         <v>85</v>
       </c>
@@ -8972,10 +8940,10 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="246"/>
-      <c r="B32" s="248"/>
-      <c r="C32" s="248"/>
-      <c r="D32" s="250"/>
+      <c r="A32" s="245"/>
+      <c r="B32" s="247"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="249"/>
       <c r="E32" s="11" t="s">
         <v>86</v>
       </c>
@@ -9003,12 +8971,10 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="245" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="247"/>
-      <c r="C33" s="247"/>
-      <c r="D33" s="249"/>
+      <c r="A33" s="244"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="248"/>
       <c r="E33" s="10" t="s">
         <v>85</v>
       </c>
@@ -9036,10 +9002,10 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="246"/>
-      <c r="B34" s="248"/>
-      <c r="C34" s="248"/>
-      <c r="D34" s="250"/>
+      <c r="A34" s="245"/>
+      <c r="B34" s="247"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="249"/>
       <c r="E34" s="11" t="s">
         <v>86</v>
       </c>
@@ -9067,12 +9033,10 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="247"/>
-      <c r="C35" s="247"/>
-      <c r="D35" s="249"/>
+      <c r="A35" s="244"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="248"/>
       <c r="E35" s="10" t="s">
         <v>85</v>
       </c>
@@ -9100,10 +9064,10 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="246"/>
-      <c r="B36" s="248"/>
-      <c r="C36" s="248"/>
-      <c r="D36" s="250"/>
+      <c r="A36" s="245"/>
+      <c r="B36" s="247"/>
+      <c r="C36" s="247"/>
+      <c r="D36" s="249"/>
       <c r="E36" s="11" t="s">
         <v>86</v>
       </c>
@@ -9131,12 +9095,10 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="247"/>
-      <c r="C37" s="247"/>
-      <c r="D37" s="249"/>
+      <c r="A37" s="244"/>
+      <c r="B37" s="246"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="248"/>
       <c r="E37" s="10" t="s">
         <v>85</v>
       </c>
@@ -9164,10 +9126,10 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="246"/>
-      <c r="B38" s="248"/>
-      <c r="C38" s="248"/>
-      <c r="D38" s="250"/>
+      <c r="A38" s="245"/>
+      <c r="B38" s="247"/>
+      <c r="C38" s="247"/>
+      <c r="D38" s="249"/>
       <c r="E38" s="11" t="s">
         <v>86</v>
       </c>
@@ -9195,12 +9157,10 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="245" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="247"/>
-      <c r="C39" s="247"/>
-      <c r="D39" s="249"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="248"/>
       <c r="E39" s="10" t="s">
         <v>85</v>
       </c>
@@ -9228,10 +9188,10 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="246"/>
-      <c r="B40" s="248"/>
-      <c r="C40" s="248"/>
-      <c r="D40" s="250"/>
+      <c r="A40" s="245"/>
+      <c r="B40" s="247"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="249"/>
       <c r="E40" s="11" t="s">
         <v>86</v>
       </c>
@@ -9259,194 +9219,230 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="260" t="s">
+      <c r="A41" s="261" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="262" t="s">
+      <c r="B41" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="263"/>
-      <c r="D41" s="263"/>
-      <c r="E41" s="264"/>
+      <c r="C41" s="264"/>
+      <c r="D41" s="264"/>
+      <c r="E41" s="265"/>
       <c r="F41" s="91">
-        <f>F23+F21+F19+F17+F15+F13+F11+F9+F7+F5</f>
+        <f t="shared" ref="F41:X41" si="2">F23+F21+F19+F17+F15+F13+F11+F9+F7+F5</f>
         <v>32</v>
       </c>
       <c r="G41" s="93">
-        <f>G23+G21+G19+G17+G15+G13+G11+G9+G7+G5</f>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="H41" s="95">
-        <f>H23+H21+H19+H17+H15+H13+H11+H9+H7+H5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I41" s="97">
-        <f>I23+I21+I19+I17+I15+I13+I11+I9+I7+I5</f>
+        <f t="shared" si="2"/>
         <v>75.5</v>
       </c>
       <c r="J41" s="99">
-        <f>J23+J21+J19+J17+J15+J13+J11+J9+J7+J5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K41" s="101">
-        <f>K23+K21+K19+K17+K15+K13+K11+K9+K7+K5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41" s="103">
-        <f>L23+L21+L19+L17+L15+L13+L11+L9+L7+L5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M41" s="105">
-        <f>M23+M21+M19+M17+M15+M13+M11+M9+M7+M5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N41" s="107">
-        <f>N23+N21+N19+N17+N15+N13+N11+N9+N7+N5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O41" s="109">
-        <f>O23+O21+O19+O17+O15+O13+O11+O9+O7+O5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P41" s="111">
-        <f>P23+P21+P19+P17+P15+P13+P11+P9+P7+P5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q41" s="113">
-        <f>Q23+Q21+Q19+Q17+Q15+Q13+Q11+Q9+Q7+Q5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R41" s="115">
-        <f>R23+R21+R19+R17+R15+R13+R11+R9+R7+R5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S41" s="117">
-        <f>S23+S21+S19+S17+S15+S13+S11+S9+S7+S5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T41" s="119">
-        <f>T23+T21+T19+T17+T15+T13+T11+T9+T7+T5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U41" s="121">
-        <f>U23+U21+U19+U17+U15+U13+U11+U9+U7+U5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V41" s="123">
-        <f>V23+V21+V19+V17+V15+V13+V11+V9+V7+V5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W41" s="125">
-        <f>W23+W21+W19+W17+W15+W13+W11+W9+W7+W5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X41" s="127">
-        <f>X23+X21+X19+X17+X15+X13+X11+X9+X7+X5</f>
+        <f t="shared" si="2"/>
         <v>427.5</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="261"/>
-      <c r="B42" s="265" t="s">
+      <c r="A42" s="262"/>
+      <c r="B42" s="266" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="266"/>
-      <c r="D42" s="266"/>
-      <c r="E42" s="267"/>
+      <c r="C42" s="267"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="268"/>
       <c r="F42" s="92">
-        <f>F24+F22+F20+F18+F16+F14+F12+F10+F8+F6</f>
+        <f t="shared" ref="F42:X42" si="3">F24+F22+F20+F18+F16+F14+F12+F10+F8+F6</f>
         <v>0</v>
       </c>
       <c r="G42" s="94">
-        <f>G24+G22+G20+G18+G16+G14+G12+G10+G8+G6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="96">
-        <f>H24+H22+H20+H18+H16+H14+H12+H10+H8+H6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="98">
-        <f>I24+I22+I20+I18+I16+I14+I12+I10+I8+I6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J42" s="100">
-        <f>J24+J22+J20+J18+J16+J14+J12+J10+J8+J6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K42" s="102">
-        <f>K24+K22+K20+K18+K16+K14+K12+K10+K8+K6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L42" s="104">
-        <f>L24+L22+L20+L18+L16+L14+L12+L10+L8+L6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M42" s="106">
-        <f>M24+M22+M20+M18+M16+M14+M12+M10+M8+M6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N42" s="108">
-        <f>N24+N22+N20+N18+N16+N14+N12+N10+N8+N6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O42" s="110">
-        <f>O24+O22+O20+O18+O16+O14+O12+O10+O8+O6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P42" s="112">
-        <f>P24+P22+P20+P18+P16+P14+P12+P10+P8+P6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q42" s="114">
-        <f>Q24+Q22+Q20+Q18+Q16+Q14+Q12+Q10+Q8+Q6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R42" s="116">
-        <f>R24+R22+R20+R18+R16+R14+R12+R10+R8+R6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S42" s="118">
-        <f>S24+S22+S20+S18+S16+S14+S12+S10+S8+S6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T42" s="120">
-        <f>T24+T22+T20+T18+T16+T14+T12+T10+T8+T6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U42" s="122">
-        <f>U24+U22+U20+U18+U16+U14+U12+U10+U8+U6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V42" s="124">
-        <f>V24+V22+V20+V18+V16+V14+V12+V10+V8+V6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W42" s="126">
-        <f>W24+W22+W20+W18+W16+W14+W12+W10+W8+W6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X42" s="128">
-        <f>X24+X22+X20+X18+X16+X14+X12+X10+X8+X6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:X1"/>
     <mergeCell ref="A25:A26"/>
@@ -9463,57 +9459,21 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.39370078739999997" right="0.39370078739999997" top="0.78740157479999995" bottom="0.39370078739999997" header="0.299212598424" footer="0.18897637795199998"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -9525,8 +9485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:M29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9541,51 +9501,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="277" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="251" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="237" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="251" t="s">
+      <c r="E1" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="253" t="s">
+      <c r="G1" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
-      <c r="U1" s="254"/>
-      <c r="V1" s="254"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="254"/>
-      <c r="Y1" s="255"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="240"/>
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="241"/>
     </row>
     <row r="2" spans="1:25" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="314"/>
-      <c r="B2" s="315"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
+      <c r="A2" s="279"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
@@ -9645,10 +9605,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="281" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="293"/>
+      <c r="B3" s="282"/>
       <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
@@ -9720,46 +9680,46 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="254"/>
-      <c r="L4" s="254"/>
-      <c r="M4" s="254"/>
-      <c r="N4" s="254"/>
-      <c r="O4" s="254"/>
-      <c r="P4" s="254"/>
-      <c r="Q4" s="254"/>
-      <c r="R4" s="254"/>
-      <c r="S4" s="254"/>
-      <c r="T4" s="254"/>
-      <c r="U4" s="254"/>
-      <c r="V4" s="254"/>
-      <c r="W4" s="254"/>
-      <c r="X4" s="254"/>
-      <c r="Y4" s="255"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="240"/>
+      <c r="V4" s="240"/>
+      <c r="W4" s="240"/>
+      <c r="X4" s="240"/>
+      <c r="Y4" s="241"/>
     </row>
     <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="298" t="s">
+      <c r="A5" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="299"/>
-      <c r="C5" s="249" t="s">
+      <c r="B5" s="274"/>
+      <c r="C5" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="249" t="s">
+      <c r="D5" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="249" t="s">
+      <c r="E5" s="248" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="10"/>
@@ -9787,11 +9747,11 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="300"/>
-      <c r="B6" s="301"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
+      <c r="A6" s="275"/>
+      <c r="B6" s="276"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -9817,17 +9777,17 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="298" t="s">
+      <c r="A7" s="273" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="299"/>
-      <c r="C7" s="249" t="s">
+      <c r="B7" s="274"/>
+      <c r="C7" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="249" t="s">
+      <c r="D7" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="249" t="s">
+      <c r="E7" s="248" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -9869,11 +9829,11 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="300"/>
-      <c r="B8" s="301"/>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
       <c r="F8" s="11" t="s">
         <v>86</v>
       </c>
@@ -9901,17 +9861,17 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="298" t="s">
+      <c r="A9" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="299"/>
-      <c r="C9" s="249" t="s">
+      <c r="B9" s="274"/>
+      <c r="C9" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="249" t="s">
+      <c r="D9" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="249" t="s">
+      <c r="E9" s="248" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="10"/>
@@ -9939,11 +9899,11 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="300"/>
-      <c r="B10" s="301"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="250"/>
-      <c r="E10" s="250"/>
+      <c r="A10" s="275"/>
+      <c r="B10" s="276"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="249"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -9969,17 +9929,17 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="298" t="s">
+      <c r="A11" s="273" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="299"/>
-      <c r="C11" s="249" t="s">
+      <c r="B11" s="274"/>
+      <c r="C11" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="249" t="s">
+      <c r="D11" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="249" t="s">
+      <c r="E11" s="248" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -10009,11 +9969,11 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="300"/>
-      <c r="B12" s="301"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="250"/>
+      <c r="A12" s="275"/>
+      <c r="B12" s="276"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
       <c r="F12" s="11" t="s">
         <v>86</v>
       </c>
@@ -10041,17 +10001,17 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="298" t="s">
+      <c r="A13" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="299"/>
-      <c r="C13" s="249" t="s">
+      <c r="B13" s="274"/>
+      <c r="C13" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="249" t="s">
+      <c r="D13" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="249" t="s">
+      <c r="E13" s="248" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="10"/>
@@ -10079,11 +10039,11 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="300"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="250"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="250"/>
+      <c r="A14" s="275"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -10109,17 +10069,17 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="298" t="s">
+      <c r="A15" s="273" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="299"/>
-      <c r="C15" s="249" t="s">
+      <c r="B15" s="274"/>
+      <c r="C15" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="249" t="s">
+      <c r="D15" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="249" t="s">
+      <c r="E15" s="248" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -10149,11 +10109,11 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="300"/>
-      <c r="B16" s="301"/>
-      <c r="C16" s="250"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="250"/>
+      <c r="A16" s="275"/>
+      <c r="B16" s="276"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
       <c r="F16" s="11" t="s">
         <v>86</v>
       </c>
@@ -10181,17 +10141,17 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="298" t="s">
+      <c r="A17" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="299"/>
-      <c r="C17" s="249" t="s">
+      <c r="B17" s="274"/>
+      <c r="C17" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="249" t="s">
+      <c r="D17" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="249" t="s">
+      <c r="E17" s="248" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
@@ -10219,11 +10179,11 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="300"/>
-      <c r="B18" s="301"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="250"/>
+      <c r="A18" s="275"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -10249,16 +10209,16 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="302" t="s">
+      <c r="A19" s="283" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="303"/>
-      <c r="C19" s="306" t="s">
+      <c r="B19" s="284"/>
+      <c r="C19" s="287" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="307"/>
-      <c r="E19" s="307"/>
-      <c r="F19" s="308"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="289"/>
       <c r="G19" s="143">
         <f t="shared" ref="G19:X19" si="1">G17+G15+G13+G11+G9+G7+G5+0</f>
         <v>96</v>
@@ -10337,14 +10297,14 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="304"/>
-      <c r="B20" s="305"/>
-      <c r="C20" s="309" t="s">
+      <c r="A20" s="285"/>
+      <c r="B20" s="286"/>
+      <c r="C20" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="310"/>
-      <c r="E20" s="310"/>
-      <c r="F20" s="311"/>
+      <c r="D20" s="291"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="292"/>
       <c r="G20" s="144">
         <f t="shared" ref="G20:X20" si="2">G18+G16+G14+G12+G10+G8+G6+0</f>
         <v>0</v>
@@ -10423,385 +10383,471 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="282" t="s">
+      <c r="A21" s="293" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="282"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="282"/>
-      <c r="F21" s="282"/>
-      <c r="G21" s="282"/>
-      <c r="H21" s="282"/>
-      <c r="I21" s="282"/>
-      <c r="J21" s="282"/>
-      <c r="K21" s="282"/>
-      <c r="L21" s="282"/>
-      <c r="M21" s="282"/>
-      <c r="N21" s="282"/>
-      <c r="O21" s="282"/>
-      <c r="P21" s="282"/>
-      <c r="Q21" s="282"/>
-      <c r="R21" s="282"/>
-      <c r="S21" s="282"/>
-      <c r="T21" s="282"/>
-      <c r="U21" s="282"/>
-      <c r="V21" s="282"/>
-      <c r="W21" s="282"/>
-      <c r="X21" s="282"/>
-      <c r="Y21" s="282"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="293"/>
+      <c r="L21" s="293"/>
+      <c r="M21" s="293"/>
+      <c r="N21" s="293"/>
+      <c r="O21" s="293"/>
+      <c r="P21" s="293"/>
+      <c r="Q21" s="293"/>
+      <c r="R21" s="293"/>
+      <c r="S21" s="293"/>
+      <c r="T21" s="293"/>
+      <c r="U21" s="293"/>
+      <c r="V21" s="293"/>
+      <c r="W21" s="293"/>
+      <c r="X21" s="293"/>
+      <c r="Y21" s="293"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="283" t="s">
+      <c r="A22" s="294" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="285" t="s">
+      <c r="B22" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="286"/>
-      <c r="D22" s="289" t="s">
+      <c r="C22" s="297"/>
+      <c r="D22" s="300" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="290"/>
-      <c r="F22" s="291"/>
-      <c r="G22" s="285" t="s">
+      <c r="E22" s="301"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="296" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="294"/>
-      <c r="K22" s="294"/>
-      <c r="L22" s="294"/>
-      <c r="M22" s="286"/>
-      <c r="N22" s="253" t="s">
+      <c r="H22" s="304"/>
+      <c r="I22" s="304"/>
+      <c r="J22" s="304"/>
+      <c r="K22" s="304"/>
+      <c r="L22" s="304"/>
+      <c r="M22" s="297"/>
+      <c r="N22" s="239" t="s">
         <v>112</v>
       </c>
-      <c r="O22" s="254"/>
-      <c r="P22" s="254"/>
-      <c r="Q22" s="254"/>
-      <c r="R22" s="254"/>
-      <c r="S22" s="254"/>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="254"/>
-      <c r="W22" s="254"/>
-      <c r="X22" s="254"/>
-      <c r="Y22" s="255"/>
+      <c r="O22" s="240"/>
+      <c r="P22" s="240"/>
+      <c r="Q22" s="240"/>
+      <c r="R22" s="240"/>
+      <c r="S22" s="240"/>
+      <c r="T22" s="240"/>
+      <c r="U22" s="240"/>
+      <c r="V22" s="240"/>
+      <c r="W22" s="240"/>
+      <c r="X22" s="240"/>
+      <c r="Y22" s="241"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="284"/>
-      <c r="B23" s="287"/>
-      <c r="C23" s="288"/>
+      <c r="A23" s="295"/>
+      <c r="B23" s="298"/>
+      <c r="C23" s="299"/>
       <c r="D23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="292" t="s">
+      <c r="E23" s="303" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="293"/>
-      <c r="G23" s="287"/>
-      <c r="H23" s="295"/>
-      <c r="I23" s="295"/>
-      <c r="J23" s="295"/>
-      <c r="K23" s="295"/>
-      <c r="L23" s="295"/>
-      <c r="M23" s="288"/>
-      <c r="N23" s="292" t="s">
+      <c r="F23" s="282"/>
+      <c r="G23" s="298"/>
+      <c r="H23" s="305"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="305"/>
+      <c r="K23" s="305"/>
+      <c r="L23" s="305"/>
+      <c r="M23" s="299"/>
+      <c r="N23" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="296"/>
-      <c r="P23" s="296"/>
-      <c r="Q23" s="296"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="293"/>
-      <c r="T23" s="292" t="s">
+      <c r="O23" s="306"/>
+      <c r="P23" s="306"/>
+      <c r="Q23" s="306"/>
+      <c r="R23" s="306"/>
+      <c r="S23" s="282"/>
+      <c r="T23" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="U23" s="296"/>
-      <c r="V23" s="296"/>
-      <c r="W23" s="296"/>
-      <c r="X23" s="296"/>
-      <c r="Y23" s="297"/>
+      <c r="U23" s="306"/>
+      <c r="V23" s="306"/>
+      <c r="W23" s="306"/>
+      <c r="X23" s="306"/>
+      <c r="Y23" s="307"/>
     </row>
     <row r="24" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="32">
+        <v>1</v>
+      </c>
       <c r="B24" s="269" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="270"/>
+      <c r="C24" s="308"/>
       <c r="D24" s="9">
         <v>100</v>
       </c>
       <c r="E24" s="269"/>
-      <c r="F24" s="270"/>
+      <c r="F24" s="308"/>
       <c r="G24" s="269" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="271"/>
-      <c r="I24" s="271"/>
-      <c r="J24" s="271"/>
-      <c r="K24" s="271"/>
-      <c r="L24" s="271"/>
-      <c r="M24" s="270"/>
-      <c r="N24" s="272">
+      <c r="H24" s="270"/>
+      <c r="I24" s="270"/>
+      <c r="J24" s="270"/>
+      <c r="K24" s="270"/>
+      <c r="L24" s="270"/>
+      <c r="M24" s="308"/>
+      <c r="N24" s="309">
         <v>44012</v>
       </c>
-      <c r="O24" s="271"/>
-      <c r="P24" s="271"/>
-      <c r="Q24" s="271"/>
-      <c r="R24" s="271"/>
-      <c r="S24" s="270"/>
+      <c r="O24" s="270"/>
+      <c r="P24" s="270"/>
+      <c r="Q24" s="270"/>
+      <c r="R24" s="270"/>
+      <c r="S24" s="308"/>
       <c r="T24" s="269"/>
-      <c r="U24" s="271"/>
-      <c r="V24" s="271"/>
-      <c r="W24" s="271"/>
-      <c r="X24" s="271"/>
-      <c r="Y24" s="273"/>
+      <c r="U24" s="270"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="270"/>
+      <c r="X24" s="270"/>
+      <c r="Y24" s="271"/>
     </row>
     <row r="25" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="32">
+        <v>2</v>
+      </c>
       <c r="B25" s="269" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="270"/>
+      <c r="C25" s="308"/>
       <c r="D25" s="9">
         <v>20</v>
       </c>
       <c r="E25" s="269"/>
-      <c r="F25" s="270"/>
+      <c r="F25" s="308"/>
       <c r="G25" s="269" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="271"/>
-      <c r="I25" s="271"/>
-      <c r="J25" s="271"/>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="270"/>
-      <c r="N25" s="272">
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="270"/>
+      <c r="K25" s="270"/>
+      <c r="L25" s="270"/>
+      <c r="M25" s="308"/>
+      <c r="N25" s="309">
         <v>43739</v>
       </c>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
-      <c r="Q25" s="271"/>
-      <c r="R25" s="271"/>
-      <c r="S25" s="270"/>
+      <c r="O25" s="270"/>
+      <c r="P25" s="270"/>
+      <c r="Q25" s="270"/>
+      <c r="R25" s="270"/>
+      <c r="S25" s="308"/>
       <c r="T25" s="269"/>
-      <c r="U25" s="271"/>
-      <c r="V25" s="271"/>
-      <c r="W25" s="271"/>
-      <c r="X25" s="271"/>
-      <c r="Y25" s="273"/>
+      <c r="U25" s="270"/>
+      <c r="V25" s="270"/>
+      <c r="W25" s="270"/>
+      <c r="X25" s="270"/>
+      <c r="Y25" s="271"/>
     </row>
     <row r="26" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="32">
+        <v>3</v>
+      </c>
       <c r="B26" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="270"/>
+      <c r="C26" s="308"/>
       <c r="D26" s="9">
         <v>20</v>
       </c>
       <c r="E26" s="269"/>
-      <c r="F26" s="270"/>
+      <c r="F26" s="308"/>
       <c r="G26" s="269" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="271"/>
-      <c r="I26" s="271"/>
-      <c r="J26" s="271"/>
-      <c r="K26" s="271"/>
-      <c r="L26" s="271"/>
-      <c r="M26" s="270"/>
-      <c r="N26" s="272">
+      <c r="H26" s="270"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="270"/>
+      <c r="K26" s="270"/>
+      <c r="L26" s="270"/>
+      <c r="M26" s="308"/>
+      <c r="N26" s="309">
         <v>43739</v>
       </c>
-      <c r="O26" s="271"/>
-      <c r="P26" s="271"/>
-      <c r="Q26" s="271"/>
-      <c r="R26" s="271"/>
-      <c r="S26" s="270"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="270"/>
+      <c r="Q26" s="270"/>
+      <c r="R26" s="270"/>
+      <c r="S26" s="308"/>
       <c r="T26" s="269"/>
-      <c r="U26" s="271"/>
-      <c r="V26" s="271"/>
-      <c r="W26" s="271"/>
-      <c r="X26" s="271"/>
-      <c r="Y26" s="273"/>
+      <c r="U26" s="270"/>
+      <c r="V26" s="270"/>
+      <c r="W26" s="270"/>
+      <c r="X26" s="270"/>
+      <c r="Y26" s="271"/>
     </row>
     <row r="27" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="32">
+        <v>4</v>
+      </c>
       <c r="B27" s="269" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="270"/>
+      <c r="C27" s="308"/>
       <c r="D27" s="9">
         <v>200</v>
       </c>
       <c r="E27" s="269"/>
-      <c r="F27" s="270"/>
+      <c r="F27" s="308"/>
       <c r="G27" s="269" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="271"/>
-      <c r="I27" s="271"/>
-      <c r="J27" s="271"/>
-      <c r="K27" s="271"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="270"/>
-      <c r="N27" s="272">
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="270"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="308"/>
+      <c r="N27" s="309">
         <v>43748</v>
       </c>
-      <c r="O27" s="271"/>
-      <c r="P27" s="271"/>
-      <c r="Q27" s="271"/>
-      <c r="R27" s="271"/>
-      <c r="S27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="270"/>
+      <c r="R27" s="270"/>
+      <c r="S27" s="308"/>
       <c r="T27" s="269"/>
-      <c r="U27" s="271"/>
-      <c r="V27" s="271"/>
-      <c r="W27" s="271"/>
-      <c r="X27" s="271"/>
-      <c r="Y27" s="273"/>
+      <c r="U27" s="270"/>
+      <c r="V27" s="270"/>
+      <c r="W27" s="270"/>
+      <c r="X27" s="270"/>
+      <c r="Y27" s="271"/>
     </row>
     <row r="28" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="32">
+        <v>5</v>
+      </c>
       <c r="B28" s="269" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="270"/>
+      <c r="C28" s="308"/>
       <c r="D28" s="9">
         <v>127.25</v>
       </c>
       <c r="E28" s="269"/>
-      <c r="F28" s="270"/>
+      <c r="F28" s="308"/>
       <c r="G28" s="269" t="s">
         <v>159</v>
       </c>
-      <c r="H28" s="271"/>
-      <c r="I28" s="271"/>
-      <c r="J28" s="271"/>
-      <c r="K28" s="271"/>
-      <c r="L28" s="271"/>
-      <c r="M28" s="270"/>
+      <c r="H28" s="270"/>
+      <c r="I28" s="270"/>
+      <c r="J28" s="270"/>
+      <c r="K28" s="270"/>
+      <c r="L28" s="270"/>
+      <c r="M28" s="308"/>
       <c r="N28" s="269" t="s">
         <v>160</v>
       </c>
-      <c r="O28" s="271"/>
-      <c r="P28" s="271"/>
-      <c r="Q28" s="271"/>
-      <c r="R28" s="271"/>
-      <c r="S28" s="270"/>
+      <c r="O28" s="270"/>
+      <c r="P28" s="270"/>
+      <c r="Q28" s="270"/>
+      <c r="R28" s="270"/>
+      <c r="S28" s="308"/>
       <c r="T28" s="269"/>
-      <c r="U28" s="271"/>
-      <c r="V28" s="271"/>
-      <c r="W28" s="271"/>
-      <c r="X28" s="271"/>
-      <c r="Y28" s="273"/>
+      <c r="U28" s="270"/>
+      <c r="V28" s="270"/>
+      <c r="W28" s="270"/>
+      <c r="X28" s="270"/>
+      <c r="Y28" s="271"/>
     </row>
     <row r="29" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="32">
+        <v>6</v>
+      </c>
       <c r="B29" s="269" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="270"/>
+      <c r="C29" s="308"/>
       <c r="D29" s="9">
         <v>96</v>
       </c>
       <c r="E29" s="269"/>
-      <c r="F29" s="270"/>
+      <c r="F29" s="308"/>
       <c r="G29" s="269" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="271"/>
-      <c r="I29" s="271"/>
-      <c r="J29" s="271"/>
-      <c r="K29" s="271"/>
-      <c r="L29" s="271"/>
-      <c r="M29" s="270"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="270"/>
+      <c r="J29" s="270"/>
+      <c r="K29" s="270"/>
+      <c r="L29" s="270"/>
+      <c r="M29" s="308"/>
       <c r="N29" s="269" t="s">
         <v>160</v>
       </c>
-      <c r="O29" s="271"/>
-      <c r="P29" s="271"/>
-      <c r="Q29" s="271"/>
-      <c r="R29" s="271"/>
-      <c r="S29" s="270"/>
+      <c r="O29" s="270"/>
+      <c r="P29" s="270"/>
+      <c r="Q29" s="270"/>
+      <c r="R29" s="270"/>
+      <c r="S29" s="308"/>
       <c r="T29" s="269"/>
-      <c r="U29" s="271"/>
-      <c r="V29" s="271"/>
-      <c r="W29" s="271"/>
-      <c r="X29" s="271"/>
-      <c r="Y29" s="273"/>
+      <c r="U29" s="270"/>
+      <c r="V29" s="270"/>
+      <c r="W29" s="270"/>
+      <c r="X29" s="270"/>
+      <c r="Y29" s="271"/>
     </row>
     <row r="30" spans="1:25" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="32">
+        <v>7</v>
+      </c>
       <c r="B30" s="269" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="270"/>
+      <c r="C30" s="308"/>
       <c r="D30" s="9">
         <v>15</v>
       </c>
       <c r="E30" s="269"/>
-      <c r="F30" s="270"/>
+      <c r="F30" s="308"/>
       <c r="G30" s="269" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="271"/>
-      <c r="I30" s="271"/>
-      <c r="J30" s="271"/>
-      <c r="K30" s="271"/>
-      <c r="L30" s="271"/>
-      <c r="M30" s="270"/>
-      <c r="N30" s="272">
+      <c r="H30" s="270"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="270"/>
+      <c r="K30" s="270"/>
+      <c r="L30" s="270"/>
+      <c r="M30" s="308"/>
+      <c r="N30" s="309">
         <v>43753</v>
       </c>
-      <c r="O30" s="271"/>
-      <c r="P30" s="271"/>
-      <c r="Q30" s="271"/>
-      <c r="R30" s="271"/>
-      <c r="S30" s="270"/>
+      <c r="O30" s="270"/>
+      <c r="P30" s="270"/>
+      <c r="Q30" s="270"/>
+      <c r="R30" s="270"/>
+      <c r="S30" s="308"/>
       <c r="T30" s="269"/>
-      <c r="U30" s="271"/>
-      <c r="V30" s="271"/>
-      <c r="W30" s="271"/>
-      <c r="X30" s="271"/>
-      <c r="Y30" s="273"/>
+      <c r="U30" s="270"/>
+      <c r="V30" s="270"/>
+      <c r="W30" s="270"/>
+      <c r="X30" s="270"/>
+      <c r="Y30" s="271"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277" t="s">
+      <c r="A31" s="313" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="278"/>
-      <c r="C31" s="279"/>
+      <c r="B31" s="314"/>
+      <c r="C31" s="315"/>
       <c r="D31" s="182">
         <f>SUM(D24:D30)</f>
         <v>578.25</v>
       </c>
-      <c r="E31" s="280"/>
-      <c r="F31" s="281"/>
-      <c r="G31" s="274"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="275"/>
-      <c r="J31" s="275"/>
-      <c r="K31" s="275"/>
-      <c r="L31" s="275"/>
-      <c r="M31" s="276"/>
-      <c r="N31" s="274"/>
-      <c r="O31" s="275"/>
-      <c r="P31" s="275"/>
-      <c r="Q31" s="275"/>
-      <c r="R31" s="275"/>
-      <c r="S31" s="276"/>
-      <c r="T31" s="274"/>
-      <c r="U31" s="275"/>
-      <c r="V31" s="275"/>
-      <c r="W31" s="275"/>
-      <c r="X31" s="275"/>
-      <c r="Y31" s="276"/>
+      <c r="E31" s="316"/>
+      <c r="F31" s="317"/>
+      <c r="G31" s="310"/>
+      <c r="H31" s="311"/>
+      <c r="I31" s="311"/>
+      <c r="J31" s="311"/>
+      <c r="K31" s="311"/>
+      <c r="L31" s="311"/>
+      <c r="M31" s="312"/>
+      <c r="N31" s="310"/>
+      <c r="O31" s="311"/>
+      <c r="P31" s="311"/>
+      <c r="Q31" s="311"/>
+      <c r="R31" s="311"/>
+      <c r="S31" s="312"/>
+      <c r="T31" s="310"/>
+      <c r="U31" s="311"/>
+      <c r="V31" s="311"/>
+      <c r="W31" s="311"/>
+      <c r="X31" s="311"/>
+      <c r="Y31" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G22:M23"/>
+    <mergeCell ref="N22:Y22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="T27:Y27"/>
     <mergeCell ref="T29:Y29"/>
@@ -10818,78 +10864,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G22:M23"/>
-    <mergeCell ref="N22:Y22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="N31:S31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="N29:S29"/>
   </mergeCells>
   <pageMargins left="0.39370078739999997" right="0.39370078739999997" top="0.78740157479999995" bottom="0.39370078739999997" header="0.299212598424" footer="0.18897637795199998"/>
   <pageSetup paperSize="9" scale="82" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -10901,8 +10875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10913,34 +10887,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="320" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="323" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="337" t="s">
+      <c r="C2" s="325" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="338"/>
-      <c r="E2" s="337" t="s">
+      <c r="D2" s="326"/>
+      <c r="E2" s="325" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="339"/>
+      <c r="F2" s="327"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="334"/>
-      <c r="B3" s="336"/>
+      <c r="A3" s="322"/>
+      <c r="B3" s="324"/>
       <c r="C3" s="183" t="s">
         <v>118</v>
       </c>
@@ -11011,10 +10985,10 @@
       <c r="F8" s="195"/>
     </row>
     <row r="9" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="324" t="s">
+      <c r="A9" s="318" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="325"/>
+      <c r="B9" s="319"/>
       <c r="C9" s="196">
         <f>SUM(C4:C8)</f>
         <v>10</v>
@@ -11025,34 +10999,34 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="320" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="328"/>
-      <c r="C11" s="328"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="328"/>
-      <c r="F11" s="328"/>
+      <c r="B11" s="320"/>
+      <c r="C11" s="320"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="320"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="333" t="s">
+      <c r="A12" s="321" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="335" t="s">
+      <c r="B12" s="323" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="337" t="s">
+      <c r="C12" s="325" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="338"/>
-      <c r="E12" s="337" t="s">
+      <c r="D12" s="326"/>
+      <c r="E12" s="325" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="339"/>
+      <c r="F12" s="327"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="334"/>
-      <c r="B13" s="336"/>
+      <c r="A13" s="322"/>
+      <c r="B13" s="324"/>
       <c r="C13" s="183" t="s">
         <v>118</v>
       </c>
@@ -11139,10 +11113,10 @@
       <c r="F19" s="210"/>
     </row>
     <row r="20" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="324" t="s">
+      <c r="A20" s="318" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="325"/>
+      <c r="B20" s="319"/>
       <c r="C20" s="211">
         <f>SUM(C14:C19)</f>
         <v>31</v>
@@ -11153,101 +11127,101 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="328" t="s">
+      <c r="A22" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="328"/>
-      <c r="C22" s="328"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
-      <c r="F22" s="328"/>
+      <c r="B22" s="320"/>
+      <c r="C22" s="320"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="320"/>
+      <c r="F22" s="320"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="329" t="s">
+      <c r="A23" s="328" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="330"/>
-      <c r="C23" s="331" t="s">
+      <c r="B23" s="329"/>
+      <c r="C23" s="330" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="330"/>
-      <c r="E23" s="331" t="s">
+      <c r="D23" s="329"/>
+      <c r="E23" s="330" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="332"/>
+      <c r="F23" s="331"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="318" t="s">
+      <c r="A24" s="332" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="319"/>
-      <c r="C24" s="320">
+      <c r="B24" s="333"/>
+      <c r="C24" s="334">
         <f>'Лист 4 - УР - всего'!Y19</f>
         <v>880.55</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="322"/>
-      <c r="F24" s="323"/>
+      <c r="D24" s="335"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="337"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="318" t="s">
+      <c r="A25" s="332" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="319"/>
-      <c r="C25" s="320">
+      <c r="B25" s="333"/>
+      <c r="C25" s="334">
         <f>'Лист 4 - УР - всего'!D31</f>
         <v>578.25</v>
       </c>
-      <c r="D25" s="321"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="323"/>
+      <c r="D25" s="335"/>
+      <c r="E25" s="336"/>
+      <c r="F25" s="337"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="318" t="s">
+      <c r="A26" s="332" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="319"/>
-      <c r="C26" s="320">
+      <c r="B26" s="333"/>
+      <c r="C26" s="334">
         <f>C9</f>
         <v>10</v>
       </c>
-      <c r="D26" s="321"/>
-      <c r="E26" s="322"/>
-      <c r="F26" s="323"/>
+      <c r="D26" s="335"/>
+      <c r="E26" s="336"/>
+      <c r="F26" s="337"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="318" t="s">
+      <c r="A27" s="332" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="319"/>
-      <c r="C27" s="320">
+      <c r="B27" s="333"/>
+      <c r="C27" s="334">
         <f>C20</f>
         <v>31</v>
       </c>
-      <c r="D27" s="321"/>
-      <c r="E27" s="322"/>
-      <c r="F27" s="323"/>
+      <c r="D27" s="335"/>
+      <c r="E27" s="336"/>
+      <c r="F27" s="337"/>
     </row>
     <row r="28" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="324" t="s">
+      <c r="A28" s="318" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="325"/>
-      <c r="C28" s="326">
+      <c r="B28" s="319"/>
+      <c r="C28" s="338">
         <f>SUM(C24:C27)</f>
         <v>1499.8</v>
       </c>
-      <c r="D28" s="327"/>
-      <c r="E28" s="326"/>
-      <c r="F28" s="327"/>
+      <c r="D28" s="339"/>
+      <c r="E28" s="338"/>
+      <c r="F28" s="339"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="226" t="s">
+      <c r="A30" s="236" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="227"/>
-      <c r="C30" s="231" t="s">
+      <c r="C30" s="230" t="s">
         <v>134</v>
       </c>
       <c r="D30" s="227"/>
@@ -11255,11 +11229,11 @@
       <c r="F30" s="227"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="236" t="s">
         <v>133</v>
       </c>
       <c r="B31" s="227"/>
-      <c r="C31" s="231" t="s">
+      <c r="C31" s="230" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="227"/>
@@ -11268,6 +11242,29 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
@@ -11280,29 +11277,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <pageMargins left="0.39370078739999997" right="0.39370078739999997" top="0.78740157479999995" bottom="0.39370078739999997" header="0.299212598424" footer="0.18897637795199998"/>
   <pageSetup paperSize="9" scale="98" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -11333,7 +11307,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="340" t="s">
         <v>135</v>
       </c>
       <c r="B1" s="227"/>
@@ -11368,497 +11342,497 @@
       <c r="B3" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="274" t="s">
+      <c r="C3" s="310" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275"/>
-      <c r="I3" s="275"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="275"/>
-      <c r="L3" s="275"/>
-      <c r="M3" s="276"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="311"/>
+      <c r="M3" s="312"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="341" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="347" t="s">
+      <c r="B4" s="344" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="350" t="s">
+      <c r="C4" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="350"/>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350"/>
-      <c r="G4" s="350"/>
-      <c r="H4" s="350"/>
-      <c r="I4" s="350"/>
-      <c r="J4" s="350"/>
-      <c r="K4" s="350"/>
-      <c r="L4" s="350"/>
-      <c r="M4" s="351"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="347"/>
+      <c r="G4" s="347"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="348"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="345"/>
-      <c r="B5" s="348"/>
-      <c r="C5" s="352" t="s">
+      <c r="A5" s="342"/>
+      <c r="B5" s="345"/>
+      <c r="C5" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="352"/>
-      <c r="E5" s="352"/>
-      <c r="F5" s="352"/>
-      <c r="G5" s="352"/>
-      <c r="H5" s="352"/>
-      <c r="I5" s="352"/>
-      <c r="J5" s="352"/>
-      <c r="K5" s="352"/>
-      <c r="L5" s="352"/>
-      <c r="M5" s="353"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="349"/>
+      <c r="J5" s="349"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="349"/>
+      <c r="M5" s="350"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="346"/>
-      <c r="B6" s="349"/>
-      <c r="C6" s="340" t="s">
+      <c r="A6" s="343"/>
+      <c r="B6" s="346"/>
+      <c r="C6" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="340"/>
-      <c r="E6" s="340"/>
-      <c r="F6" s="340"/>
-      <c r="G6" s="340"/>
-      <c r="H6" s="340"/>
-      <c r="I6" s="340"/>
-      <c r="J6" s="340"/>
-      <c r="K6" s="340"/>
-      <c r="L6" s="340"/>
-      <c r="M6" s="341"/>
+      <c r="D6" s="351"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="351"/>
+      <c r="G6" s="351"/>
+      <c r="H6" s="351"/>
+      <c r="I6" s="351"/>
+      <c r="J6" s="351"/>
+      <c r="K6" s="351"/>
+      <c r="L6" s="351"/>
+      <c r="M6" s="352"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="344" t="s">
+      <c r="A7" s="341" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="347" t="s">
+      <c r="B7" s="344" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="350" t="s">
+      <c r="C7" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="350"/>
-      <c r="E7" s="350"/>
-      <c r="F7" s="350"/>
-      <c r="G7" s="350"/>
-      <c r="H7" s="350"/>
-      <c r="I7" s="350"/>
-      <c r="J7" s="350"/>
-      <c r="K7" s="350"/>
-      <c r="L7" s="350"/>
-      <c r="M7" s="351"/>
+      <c r="D7" s="347"/>
+      <c r="E7" s="347"/>
+      <c r="F7" s="347"/>
+      <c r="G7" s="347"/>
+      <c r="H7" s="347"/>
+      <c r="I7" s="347"/>
+      <c r="J7" s="347"/>
+      <c r="K7" s="347"/>
+      <c r="L7" s="347"/>
+      <c r="M7" s="348"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="345"/>
-      <c r="B8" s="348"/>
-      <c r="C8" s="352" t="s">
+      <c r="A8" s="342"/>
+      <c r="B8" s="345"/>
+      <c r="C8" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="352"/>
-      <c r="E8" s="352"/>
-      <c r="F8" s="352"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="352"/>
-      <c r="K8" s="352"/>
-      <c r="L8" s="352"/>
-      <c r="M8" s="353"/>
+      <c r="D8" s="349"/>
+      <c r="E8" s="349"/>
+      <c r="F8" s="349"/>
+      <c r="G8" s="349"/>
+      <c r="H8" s="349"/>
+      <c r="I8" s="349"/>
+      <c r="J8" s="349"/>
+      <c r="K8" s="349"/>
+      <c r="L8" s="349"/>
+      <c r="M8" s="350"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="346"/>
-      <c r="B9" s="349"/>
-      <c r="C9" s="340" t="s">
+      <c r="A9" s="343"/>
+      <c r="B9" s="346"/>
+      <c r="C9" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="340"/>
-      <c r="E9" s="340"/>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="340"/>
-      <c r="I9" s="340"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="340"/>
-      <c r="L9" s="340"/>
-      <c r="M9" s="341"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="351"/>
+      <c r="G9" s="351"/>
+      <c r="H9" s="351"/>
+      <c r="I9" s="351"/>
+      <c r="J9" s="351"/>
+      <c r="K9" s="351"/>
+      <c r="L9" s="351"/>
+      <c r="M9" s="352"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="347" t="s">
+      <c r="B10" s="344" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="350" t="s">
+      <c r="C10" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="350"/>
-      <c r="E10" s="350"/>
-      <c r="F10" s="350"/>
-      <c r="G10" s="350"/>
-      <c r="H10" s="350"/>
-      <c r="I10" s="350"/>
-      <c r="J10" s="350"/>
-      <c r="K10" s="350"/>
-      <c r="L10" s="350"/>
-      <c r="M10" s="351"/>
+      <c r="D10" s="347"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="347"/>
+      <c r="G10" s="347"/>
+      <c r="H10" s="347"/>
+      <c r="I10" s="347"/>
+      <c r="J10" s="347"/>
+      <c r="K10" s="347"/>
+      <c r="L10" s="347"/>
+      <c r="M10" s="348"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="345"/>
-      <c r="B11" s="348"/>
-      <c r="C11" s="352" t="s">
+      <c r="A11" s="342"/>
+      <c r="B11" s="345"/>
+      <c r="C11" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="352"/>
-      <c r="E11" s="352"/>
-      <c r="F11" s="352"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="352"/>
-      <c r="I11" s="352"/>
-      <c r="J11" s="352"/>
-      <c r="K11" s="352"/>
-      <c r="L11" s="352"/>
-      <c r="M11" s="353"/>
+      <c r="D11" s="349"/>
+      <c r="E11" s="349"/>
+      <c r="F11" s="349"/>
+      <c r="G11" s="349"/>
+      <c r="H11" s="349"/>
+      <c r="I11" s="349"/>
+      <c r="J11" s="349"/>
+      <c r="K11" s="349"/>
+      <c r="L11" s="349"/>
+      <c r="M11" s="350"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="346"/>
-      <c r="B12" s="349"/>
-      <c r="C12" s="340" t="s">
+      <c r="A12" s="343"/>
+      <c r="B12" s="346"/>
+      <c r="C12" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="340"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="340"/>
-      <c r="G12" s="340"/>
-      <c r="H12" s="340"/>
-      <c r="I12" s="340"/>
-      <c r="J12" s="340"/>
-      <c r="K12" s="340"/>
-      <c r="L12" s="340"/>
-      <c r="M12" s="341"/>
+      <c r="D12" s="351"/>
+      <c r="E12" s="351"/>
+      <c r="F12" s="351"/>
+      <c r="G12" s="351"/>
+      <c r="H12" s="351"/>
+      <c r="I12" s="351"/>
+      <c r="J12" s="351"/>
+      <c r="K12" s="351"/>
+      <c r="L12" s="351"/>
+      <c r="M12" s="352"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="344" t="s">
+      <c r="A13" s="341" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="347" t="s">
+      <c r="B13" s="344" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="350" t="s">
+      <c r="C13" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="350"/>
-      <c r="E13" s="350"/>
-      <c r="F13" s="350"/>
-      <c r="G13" s="350"/>
-      <c r="H13" s="350"/>
-      <c r="I13" s="350"/>
-      <c r="J13" s="350"/>
-      <c r="K13" s="350"/>
-      <c r="L13" s="350"/>
-      <c r="M13" s="351"/>
+      <c r="D13" s="347"/>
+      <c r="E13" s="347"/>
+      <c r="F13" s="347"/>
+      <c r="G13" s="347"/>
+      <c r="H13" s="347"/>
+      <c r="I13" s="347"/>
+      <c r="J13" s="347"/>
+      <c r="K13" s="347"/>
+      <c r="L13" s="347"/>
+      <c r="M13" s="348"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="345"/>
-      <c r="B14" s="348"/>
-      <c r="C14" s="352" t="s">
+      <c r="A14" s="342"/>
+      <c r="B14" s="345"/>
+      <c r="C14" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="352"/>
-      <c r="E14" s="352"/>
-      <c r="F14" s="352"/>
-      <c r="G14" s="352"/>
-      <c r="H14" s="352"/>
-      <c r="I14" s="352"/>
-      <c r="J14" s="352"/>
-      <c r="K14" s="352"/>
-      <c r="L14" s="352"/>
-      <c r="M14" s="353"/>
+      <c r="D14" s="349"/>
+      <c r="E14" s="349"/>
+      <c r="F14" s="349"/>
+      <c r="G14" s="349"/>
+      <c r="H14" s="349"/>
+      <c r="I14" s="349"/>
+      <c r="J14" s="349"/>
+      <c r="K14" s="349"/>
+      <c r="L14" s="349"/>
+      <c r="M14" s="350"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="346"/>
-      <c r="B15" s="349"/>
-      <c r="C15" s="340" t="s">
+      <c r="A15" s="343"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="340"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="340"/>
-      <c r="G15" s="340"/>
-      <c r="H15" s="340"/>
-      <c r="I15" s="340"/>
-      <c r="J15" s="340"/>
-      <c r="K15" s="340"/>
-      <c r="L15" s="340"/>
-      <c r="M15" s="341"/>
+      <c r="D15" s="351"/>
+      <c r="E15" s="351"/>
+      <c r="F15" s="351"/>
+      <c r="G15" s="351"/>
+      <c r="H15" s="351"/>
+      <c r="I15" s="351"/>
+      <c r="J15" s="351"/>
+      <c r="K15" s="351"/>
+      <c r="L15" s="351"/>
+      <c r="M15" s="352"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="344" t="s">
+      <c r="A16" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="347" t="s">
+      <c r="B16" s="344" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="350" t="s">
+      <c r="C16" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="350"/>
-      <c r="G16" s="350"/>
-      <c r="H16" s="350"/>
-      <c r="I16" s="350"/>
-      <c r="J16" s="350"/>
-      <c r="K16" s="350"/>
-      <c r="L16" s="350"/>
-      <c r="M16" s="351"/>
+      <c r="D16" s="347"/>
+      <c r="E16" s="347"/>
+      <c r="F16" s="347"/>
+      <c r="G16" s="347"/>
+      <c r="H16" s="347"/>
+      <c r="I16" s="347"/>
+      <c r="J16" s="347"/>
+      <c r="K16" s="347"/>
+      <c r="L16" s="347"/>
+      <c r="M16" s="348"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="345"/>
-      <c r="B17" s="348"/>
-      <c r="C17" s="352" t="s">
+      <c r="A17" s="342"/>
+      <c r="B17" s="345"/>
+      <c r="C17" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="352"/>
-      <c r="E17" s="352"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="352"/>
-      <c r="H17" s="352"/>
-      <c r="I17" s="352"/>
-      <c r="J17" s="352"/>
-      <c r="K17" s="352"/>
-      <c r="L17" s="352"/>
-      <c r="M17" s="353"/>
+      <c r="D17" s="349"/>
+      <c r="E17" s="349"/>
+      <c r="F17" s="349"/>
+      <c r="G17" s="349"/>
+      <c r="H17" s="349"/>
+      <c r="I17" s="349"/>
+      <c r="J17" s="349"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="349"/>
+      <c r="M17" s="350"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="346"/>
-      <c r="B18" s="349"/>
-      <c r="C18" s="340" t="s">
+      <c r="A18" s="343"/>
+      <c r="B18" s="346"/>
+      <c r="C18" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="340"/>
-      <c r="E18" s="340"/>
-      <c r="F18" s="340"/>
-      <c r="G18" s="340"/>
-      <c r="H18" s="340"/>
-      <c r="I18" s="340"/>
-      <c r="J18" s="340"/>
-      <c r="K18" s="340"/>
-      <c r="L18" s="340"/>
-      <c r="M18" s="341"/>
+      <c r="D18" s="351"/>
+      <c r="E18" s="351"/>
+      <c r="F18" s="351"/>
+      <c r="G18" s="351"/>
+      <c r="H18" s="351"/>
+      <c r="I18" s="351"/>
+      <c r="J18" s="351"/>
+      <c r="K18" s="351"/>
+      <c r="L18" s="351"/>
+      <c r="M18" s="352"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="344" t="s">
+      <c r="A19" s="341" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="347" t="s">
+      <c r="B19" s="344" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="350" t="s">
+      <c r="C19" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="350"/>
-      <c r="E19" s="350"/>
-      <c r="F19" s="350"/>
-      <c r="G19" s="350"/>
-      <c r="H19" s="350"/>
-      <c r="I19" s="350"/>
-      <c r="J19" s="350"/>
-      <c r="K19" s="350"/>
-      <c r="L19" s="350"/>
-      <c r="M19" s="351"/>
+      <c r="D19" s="347"/>
+      <c r="E19" s="347"/>
+      <c r="F19" s="347"/>
+      <c r="G19" s="347"/>
+      <c r="H19" s="347"/>
+      <c r="I19" s="347"/>
+      <c r="J19" s="347"/>
+      <c r="K19" s="347"/>
+      <c r="L19" s="347"/>
+      <c r="M19" s="348"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="345"/>
-      <c r="B20" s="348"/>
-      <c r="C20" s="352" t="s">
+      <c r="A20" s="342"/>
+      <c r="B20" s="345"/>
+      <c r="C20" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="352"/>
-      <c r="E20" s="352"/>
-      <c r="F20" s="352"/>
-      <c r="G20" s="352"/>
-      <c r="H20" s="352"/>
-      <c r="I20" s="352"/>
-      <c r="J20" s="352"/>
-      <c r="K20" s="352"/>
-      <c r="L20" s="352"/>
-      <c r="M20" s="353"/>
+      <c r="D20" s="349"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="349"/>
+      <c r="G20" s="349"/>
+      <c r="H20" s="349"/>
+      <c r="I20" s="349"/>
+      <c r="J20" s="349"/>
+      <c r="K20" s="349"/>
+      <c r="L20" s="349"/>
+      <c r="M20" s="350"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="346"/>
-      <c r="B21" s="349"/>
-      <c r="C21" s="340" t="s">
+      <c r="A21" s="343"/>
+      <c r="B21" s="346"/>
+      <c r="C21" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="340"/>
-      <c r="E21" s="340"/>
-      <c r="F21" s="340"/>
-      <c r="G21" s="340"/>
-      <c r="H21" s="340"/>
-      <c r="I21" s="340"/>
-      <c r="J21" s="340"/>
-      <c r="K21" s="340"/>
-      <c r="L21" s="340"/>
-      <c r="M21" s="341"/>
+      <c r="D21" s="351"/>
+      <c r="E21" s="351"/>
+      <c r="F21" s="351"/>
+      <c r="G21" s="351"/>
+      <c r="H21" s="351"/>
+      <c r="I21" s="351"/>
+      <c r="J21" s="351"/>
+      <c r="K21" s="351"/>
+      <c r="L21" s="351"/>
+      <c r="M21" s="352"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="344" t="s">
+      <c r="A22" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="347" t="s">
+      <c r="B22" s="344" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="350" t="s">
+      <c r="C22" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="350"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="350"/>
-      <c r="G22" s="350"/>
-      <c r="H22" s="350"/>
-      <c r="I22" s="350"/>
-      <c r="J22" s="350"/>
-      <c r="K22" s="350"/>
-      <c r="L22" s="350"/>
-      <c r="M22" s="351"/>
+      <c r="D22" s="347"/>
+      <c r="E22" s="347"/>
+      <c r="F22" s="347"/>
+      <c r="G22" s="347"/>
+      <c r="H22" s="347"/>
+      <c r="I22" s="347"/>
+      <c r="J22" s="347"/>
+      <c r="K22" s="347"/>
+      <c r="L22" s="347"/>
+      <c r="M22" s="348"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="345"/>
-      <c r="B23" s="348"/>
-      <c r="C23" s="352" t="s">
+      <c r="A23" s="342"/>
+      <c r="B23" s="345"/>
+      <c r="C23" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="352"/>
-      <c r="E23" s="352"/>
-      <c r="F23" s="352"/>
-      <c r="G23" s="352"/>
-      <c r="H23" s="352"/>
-      <c r="I23" s="352"/>
-      <c r="J23" s="352"/>
-      <c r="K23" s="352"/>
-      <c r="L23" s="352"/>
-      <c r="M23" s="353"/>
+      <c r="D23" s="349"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="349"/>
+      <c r="H23" s="349"/>
+      <c r="I23" s="349"/>
+      <c r="J23" s="349"/>
+      <c r="K23" s="349"/>
+      <c r="L23" s="349"/>
+      <c r="M23" s="350"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="346"/>
-      <c r="B24" s="349"/>
-      <c r="C24" s="340" t="s">
+      <c r="A24" s="343"/>
+      <c r="B24" s="346"/>
+      <c r="C24" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="340"/>
-      <c r="E24" s="340"/>
-      <c r="F24" s="340"/>
-      <c r="G24" s="340"/>
-      <c r="H24" s="340"/>
-      <c r="I24" s="340"/>
-      <c r="J24" s="340"/>
-      <c r="K24" s="340"/>
-      <c r="L24" s="340"/>
-      <c r="M24" s="341"/>
+      <c r="D24" s="351"/>
+      <c r="E24" s="351"/>
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
+      <c r="H24" s="351"/>
+      <c r="I24" s="351"/>
+      <c r="J24" s="351"/>
+      <c r="K24" s="351"/>
+      <c r="L24" s="351"/>
+      <c r="M24" s="352"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="344" t="s">
+      <c r="A25" s="341" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="347" t="s">
+      <c r="B25" s="344" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="350" t="s">
+      <c r="C25" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="350"/>
-      <c r="E25" s="350"/>
-      <c r="F25" s="350"/>
-      <c r="G25" s="350"/>
-      <c r="H25" s="350"/>
-      <c r="I25" s="350"/>
-      <c r="J25" s="350"/>
-      <c r="K25" s="350"/>
-      <c r="L25" s="350"/>
-      <c r="M25" s="351"/>
+      <c r="D25" s="347"/>
+      <c r="E25" s="347"/>
+      <c r="F25" s="347"/>
+      <c r="G25" s="347"/>
+      <c r="H25" s="347"/>
+      <c r="I25" s="347"/>
+      <c r="J25" s="347"/>
+      <c r="K25" s="347"/>
+      <c r="L25" s="347"/>
+      <c r="M25" s="348"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="345"/>
-      <c r="B26" s="348"/>
-      <c r="C26" s="352" t="s">
+      <c r="A26" s="342"/>
+      <c r="B26" s="345"/>
+      <c r="C26" s="349" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="352"/>
-      <c r="E26" s="352"/>
-      <c r="F26" s="352"/>
-      <c r="G26" s="352"/>
-      <c r="H26" s="352"/>
-      <c r="I26" s="352"/>
-      <c r="J26" s="352"/>
-      <c r="K26" s="352"/>
-      <c r="L26" s="352"/>
-      <c r="M26" s="353"/>
+      <c r="D26" s="349"/>
+      <c r="E26" s="349"/>
+      <c r="F26" s="349"/>
+      <c r="G26" s="349"/>
+      <c r="H26" s="349"/>
+      <c r="I26" s="349"/>
+      <c r="J26" s="349"/>
+      <c r="K26" s="349"/>
+      <c r="L26" s="349"/>
+      <c r="M26" s="350"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="346"/>
-      <c r="B27" s="349"/>
-      <c r="C27" s="340" t="s">
+      <c r="A27" s="343"/>
+      <c r="B27" s="346"/>
+      <c r="C27" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="340"/>
-      <c r="E27" s="340"/>
-      <c r="F27" s="340"/>
-      <c r="G27" s="340"/>
-      <c r="H27" s="340"/>
-      <c r="I27" s="340"/>
-      <c r="J27" s="340"/>
-      <c r="K27" s="340"/>
-      <c r="L27" s="340"/>
-      <c r="M27" s="341"/>
+      <c r="D27" s="351"/>
+      <c r="E27" s="351"/>
+      <c r="F27" s="351"/>
+      <c r="G27" s="351"/>
+      <c r="H27" s="351"/>
+      <c r="I27" s="351"/>
+      <c r="J27" s="351"/>
+      <c r="K27" s="351"/>
+      <c r="L27" s="351"/>
+      <c r="M27" s="352"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="344" t="s">
+      <c r="A28" s="341" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="347" t="s">
+      <c r="B28" s="344" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="354" t="s">
+      <c r="C28" s="355" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="354"/>
-      <c r="E28" s="354"/>
-      <c r="F28" s="354"/>
-      <c r="G28" s="354"/>
-      <c r="H28" s="354"/>
-      <c r="I28" s="354"/>
-      <c r="J28" s="354"/>
-      <c r="K28" s="354"/>
-      <c r="L28" s="354"/>
-      <c r="M28" s="355"/>
+      <c r="D28" s="355"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="355"/>
+      <c r="G28" s="355"/>
+      <c r="H28" s="355"/>
+      <c r="I28" s="355"/>
+      <c r="J28" s="355"/>
+      <c r="K28" s="355"/>
+      <c r="L28" s="355"/>
+      <c r="M28" s="356"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="346"/>
-      <c r="B29" s="349"/>
-      <c r="C29" s="356" t="s">
+      <c r="A29" s="343"/>
+      <c r="B29" s="346"/>
+      <c r="C29" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="356"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="356"/>
-      <c r="J29" s="356"/>
-      <c r="K29" s="356"/>
-      <c r="L29" s="356"/>
-      <c r="M29" s="357"/>
+      <c r="D29" s="357"/>
+      <c r="E29" s="357"/>
+      <c r="F29" s="357"/>
+      <c r="G29" s="357"/>
+      <c r="H29" s="357"/>
+      <c r="I29" s="357"/>
+      <c r="J29" s="357"/>
+      <c r="K29" s="357"/>
+      <c r="L29" s="357"/>
+      <c r="M29" s="358"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="213" t="s">
@@ -11867,19 +11841,19 @@
       <c r="B30" s="214" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="340" t="s">
+      <c r="C30" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="340"/>
-      <c r="E30" s="340"/>
-      <c r="F30" s="340"/>
-      <c r="G30" s="340"/>
-      <c r="H30" s="340"/>
-      <c r="I30" s="340"/>
-      <c r="J30" s="340"/>
-      <c r="K30" s="340"/>
-      <c r="L30" s="340"/>
-      <c r="M30" s="341"/>
+      <c r="D30" s="351"/>
+      <c r="E30" s="351"/>
+      <c r="F30" s="351"/>
+      <c r="G30" s="351"/>
+      <c r="H30" s="351"/>
+      <c r="I30" s="351"/>
+      <c r="J30" s="351"/>
+      <c r="K30" s="351"/>
+      <c r="L30" s="351"/>
+      <c r="M30" s="352"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="215" t="s">
@@ -11888,19 +11862,19 @@
       <c r="B31" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="340" t="s">
+      <c r="C31" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="340"/>
-      <c r="E31" s="340"/>
-      <c r="F31" s="340"/>
-      <c r="G31" s="340"/>
-      <c r="H31" s="340"/>
-      <c r="I31" s="340"/>
-      <c r="J31" s="340"/>
-      <c r="K31" s="340"/>
-      <c r="L31" s="340"/>
-      <c r="M31" s="341"/>
+      <c r="D31" s="351"/>
+      <c r="E31" s="351"/>
+      <c r="F31" s="351"/>
+      <c r="G31" s="351"/>
+      <c r="H31" s="351"/>
+      <c r="I31" s="351"/>
+      <c r="J31" s="351"/>
+      <c r="K31" s="351"/>
+      <c r="L31" s="351"/>
+      <c r="M31" s="352"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="217" t="s">
@@ -11909,19 +11883,19 @@
       <c r="B32" s="218" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="340" t="s">
+      <c r="C32" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="340"/>
-      <c r="E32" s="340"/>
-      <c r="F32" s="340"/>
-      <c r="G32" s="340"/>
-      <c r="H32" s="340"/>
-      <c r="I32" s="340"/>
-      <c r="J32" s="340"/>
-      <c r="K32" s="340"/>
-      <c r="L32" s="340"/>
-      <c r="M32" s="341"/>
+      <c r="D32" s="351"/>
+      <c r="E32" s="351"/>
+      <c r="F32" s="351"/>
+      <c r="G32" s="351"/>
+      <c r="H32" s="351"/>
+      <c r="I32" s="351"/>
+      <c r="J32" s="351"/>
+      <c r="K32" s="351"/>
+      <c r="L32" s="351"/>
+      <c r="M32" s="352"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="219" t="s">
@@ -11930,19 +11904,19 @@
       <c r="B33" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="340" t="s">
+      <c r="C33" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="340"/>
-      <c r="E33" s="340"/>
-      <c r="F33" s="340"/>
-      <c r="G33" s="340"/>
-      <c r="H33" s="340"/>
-      <c r="I33" s="340"/>
-      <c r="J33" s="340"/>
-      <c r="K33" s="340"/>
-      <c r="L33" s="340"/>
-      <c r="M33" s="341"/>
+      <c r="D33" s="351"/>
+      <c r="E33" s="351"/>
+      <c r="F33" s="351"/>
+      <c r="G33" s="351"/>
+      <c r="H33" s="351"/>
+      <c r="I33" s="351"/>
+      <c r="J33" s="351"/>
+      <c r="K33" s="351"/>
+      <c r="L33" s="351"/>
+      <c r="M33" s="352"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="221" t="s">
@@ -11951,19 +11925,19 @@
       <c r="B34" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="340" t="s">
+      <c r="C34" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="340"/>
-      <c r="E34" s="340"/>
-      <c r="F34" s="340"/>
-      <c r="G34" s="340"/>
-      <c r="H34" s="340"/>
-      <c r="I34" s="340"/>
-      <c r="J34" s="340"/>
-      <c r="K34" s="340"/>
-      <c r="L34" s="340"/>
-      <c r="M34" s="341"/>
+      <c r="D34" s="351"/>
+      <c r="E34" s="351"/>
+      <c r="F34" s="351"/>
+      <c r="G34" s="351"/>
+      <c r="H34" s="351"/>
+      <c r="I34" s="351"/>
+      <c r="J34" s="351"/>
+      <c r="K34" s="351"/>
+      <c r="L34" s="351"/>
+      <c r="M34" s="352"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="223" t="s">
@@ -11972,59 +11946,22 @@
       <c r="B35" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="342" t="s">
+      <c r="C35" s="353" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="342"/>
-      <c r="E35" s="342"/>
-      <c r="F35" s="342"/>
-      <c r="G35" s="342"/>
-      <c r="H35" s="342"/>
-      <c r="I35" s="342"/>
-      <c r="J35" s="342"/>
-      <c r="K35" s="342"/>
-      <c r="L35" s="342"/>
-      <c r="M35" s="343"/>
+      <c r="D35" s="353"/>
+      <c r="E35" s="353"/>
+      <c r="F35" s="353"/>
+      <c r="G35" s="353"/>
+      <c r="H35" s="353"/>
+      <c r="I35" s="353"/>
+      <c r="J35" s="353"/>
+      <c r="K35" s="353"/>
+      <c r="L35" s="353"/>
+      <c r="M35" s="354"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C21:M21"/>
     <mergeCell ref="C35:M35"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
@@ -12040,6 +11977,43 @@
     <mergeCell ref="C32:M32"/>
     <mergeCell ref="C33:M33"/>
     <mergeCell ref="C34:M34"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
   </mergeCells>
   <pageMargins left="0.39370078739999997" right="0.39370078739999997" top="0.78740157479999995" bottom="0.39370078739999997" header="0.299212598424" footer="0.18897637795199998"/>
   <pageSetup paperSize="9" scale="90" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
